--- a/ワンピースカードリスト.xlsx
+++ b/ワンピースカードリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF84FFBC-A321-4C52-9810-18AAFDDEF91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2DE6B-6860-44E2-ABD7-BB99ADDC6553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AC039DD-FE59-4302-A031-1F03D9261B47}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13675" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="1981">
   <si>
     <t>False</t>
   </si>
@@ -7076,6 +7076,1272 @@
   </si>
   <si>
     <t>【起動メイン】②(コストエリアのドン!!を指定の数レストにできる),このステージをレストにできる：自分のリーダーが「ポートガス・D・エース」の場合、自分のデッキの上から5枚を見て、イベント1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,クロネコ海賊団</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】③(コストエリアのドン!!を指定の数レストにできる),自分の特徴《東の海》を持つキャラ2枚をレストにできる　：このリーダーをアクティブにし、相手のコスト5以下のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーロン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魚人族,東の海,アーロン一族</t>
+    <rPh sb="0" eb="2">
+      <t>ギョジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×2】【アタック時】①(コストエリアのドン!!を指定の数レストにできる)：自分の手札からコスト4以下の【トリガー】を持つキャラカード1枚までを、登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルビダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>打</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,アルビダ海賊団</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,クリーク海賊団</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが特徴《東の海》を持つ場合、相手のコスト4以下のキャラ2枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>射</t>
+    <rPh sb="0" eb="1">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分の手札1枚を捨てることができる：相手のレストのコスト4以下のキャラ2枚までを、KOする。【ドン!!×1】このキャラは【ダブルアタック】を得る。(このカードが与えるダメージは2になる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロオビ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが特徴《東の海》を持つ場合、相手のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが特徴《東の海》を持つ場合、相手のコスト2以下のキャラ1枚までを、レストにし、自分の「ブチ」がいない場合、自分の手札から「ブチ」1枚までを、登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】以下から1つを選ぶ。・自分の特徴《東の海》を持つ、リーダーかコスト6以下のキャラ1枚までを、アクティブにする。・このキャラと相手のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チュウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手のレストのコスト4以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>知</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,アーロン一族</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から5枚を見て、「ナミ」以外の緑の特徴《東の海》を持つカード1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,バギー海賊団</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このキャラは、属性(斬)を持つカードとのバトルでKOされない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はっちゃん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魚人族,東の海,アーロン一族</t>
+    <rPh sb="4" eb="5">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分のリーダーが特徴《東の海》を持つ場合、このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手のレストのコスト2以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物,東の海</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>杓死:しゃくし</t>
+    <rPh sb="0" eb="1">
+      <t>シャク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】自分の特徴《東の海》を持つキャラ1枚をレストにできる：自分の「クロ」1枚までを、アクティブにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手のレストのコスト3以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯ガム:トゥースガム</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魚人族,東の海,アーロン一族</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】自分の特徴《東の海》を持つキャラ1枚をレストにできる：相手のレストのコスト3以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分の手札からコスト4以下の【トリガー】を持つキャラカード1枚までを、登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>猛毒ガス弾『M・H・5』:もうどくガス『エム・エイチ・ファイブ』</t>
+    <rPh sb="0" eb="2">
+      <t>モウドク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手のコスト2以下のキャラ2枚までを、レストにする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手のコスト5以下のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワン・ツー・ジャンゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手のコスト1以下のキャラ1枚までを、レストにする。その後、自分のキャラ1枚までを、このターン中、パワー+1000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手のコスト4以下のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナミ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルール上、自分のデッキが0枚になった場合、自分は敗北する代わりに勝利する。【ドン!!×1】このリーダーのアタックによって、相手のライフにダメージを与えた時、自分のデッキの上から1枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウソップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【速攻】(このカードは登場したターンにアタックできる)【ドン!!×1】このキャラのアタックによって、相手のライフにダメージを与えた時、自分のデッキの上から7枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のトラッシュの青の「ウソップ」1枚までを、手札に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガイモン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相手のライフにダメージを与えた時、自分のデッキの上から3枚をトラッシュに置いてもよい。そうした場合、このキャラをトラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】カード2枚を引き、自分の手札2枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カルネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【相手のターン中】自分のデッキが20枚以下の場合、このキャラはパワー+3000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲンゾウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウソップ海賊団:ウソップかいぞくだん</t>
+    <rPh sb="4" eb="7">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゼフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>打</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】このキャラのアタックによって、相手のライフにダメージを与えた時、自分のデッキの上から7枚をトラッシュに置いてもよい。【登場時】コスト3以下のキャラ1枚までを、持ち主の手札に戻し、自分のデッキの上から2枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノジコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが「ナミ」の場合、相手のコスト5以下のキャラ1枚までを、持ち主の手札に戻す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキが20枚以下の場合、コスト3以下のキャラ1枚までを、持ち主の手札に戻す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブードル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【KO時】自分のデッキの上から1枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,元海軍</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モトカイグン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】このキャラのアタックによって、相手のライフにダメージを与えた時、自分のデッキの上から7枚をトラッシュに置いてもよい。【KO時】自分のデッキの上から3枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨサク＆ジョニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】自分のデッキが20枚以下の場合、このキャラはパワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウソーーップ輪ごーむっ!!!:ウソーーップわごーむっ!!!</t>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東の海,麦わらの一味</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分のリーダーかキャラ1枚までを、このバトル中、パワー+2000。その後、自分のデッキの上から1枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】カード1枚を引き、自分のデッキの上から1枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴムゴムの大槌:ゴムゴムのおおづち</t>
+    <rPh sb="5" eb="7">
+      <t>オオヅチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分の手札1枚を捨てることができる：自分のリーダー1枚までを、このバトル中、パワー+4000。その後、自分のデッキの上から2枚をトラッシュに置いてもよい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】コスト4以下のキャラ1枚までを、持ち主の手札に戻す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンジのピラフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】カード2枚を引く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】このカードの【メイン】効果を発動する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三・千・世・界:さん・ぜん・せ・かい</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】コスト5以下のキャラ1枚までを、持ち主のデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】コスト3以下のキャラ1枚までを、持ち主のデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスバーグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W7,GC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このリーダーはアタックできない。【起動メイン】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)，このリーダーをレストにできる：自分の手札からコスト5以下の特徴《GC》を持つキャラカード1枚までを、登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：このキャラは、このバトル中、【バニッシュ】を得る。(このカードがダメージを与えた場合、トリガーは発動せずそのカードはトラッシュに置かれる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリファ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：カード2枚を引き、自分の手札1枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キウイ＆モズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から5枚を見て、「ココロ」以外の特徴《W7》を持つカード1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ザンバイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W7,フランキー一族</t>
+    <rPh sb="8" eb="10">
+      <t>イチゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【登場時】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：自分のリーダーが特徴《W7》を持つ場合、カード1枚を引く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイルストン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【KO時】自分のリーダーが特徴《GC》を持つ場合、ドン!!デッキからドン!!1枚までを、レストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チムニー＆ゴンべ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動物,W7</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パウリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】➁(コストエリアのドン!!を指定の数レストにできる)：ドン!!デッキからドン!!1枚までを、アクティブで追加する。その後、自分の場にドン!!が8枚以上ある場合、相手のコスト4以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピープリー・ルル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【アタック時】自分のリーダーが特徴《GC》を持つ場合、ドン!!デッキからドン!!1枚までを、レストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミノゼブラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インペルダウン,獄卒獣</t>
+    <rPh sb="8" eb="11">
+      <t>ゴクソツジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【バニッシュ】(このカードがダメージを与えた場合、トリガーは発動せずそのカードはトラッシュに置かれる)【KO時】自分のリーダーが特徴《インペルダウン》を持つ場合、ドン!!デッキからドン!!1枚までを、レストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミノリノケロス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【KO時】自分のリーダーが特徴《インペルダウン》を持つ場合、カード2枚を引き、手札1枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W7,麦わらの一味</t>
+    <rPh sb="3" eb="4">
+      <t>ムギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)，自分の手札からコスト5のキャラカード1枚を捨てることができる：このキャラは、このターン中、【速攻】を得る。(このカードは登場したターンにアタックできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロブ・ルッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：相手のコスト5以下のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴムゴムのJET銃乱打:ゴムゴムのジェットピストル</t>
+    <rPh sb="8" eb="9">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分の手札1枚を捨てることができる：自分のリーダーかキャラ1枚までを、このバトル中、パワー+3000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】ドン!!デッキからドン!!1枚までを、アクティブで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>船体解体斬り:せんたいかいたいきり</t>
+    <rPh sb="0" eb="4">
+      <t>センタイカイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】ドン!!-1(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：自分のリーダーが特徴《W7》を持つ場合、相手のコスト2以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独楽結び:タップノット</t>
+    <rPh sb="0" eb="2">
+      <t>ドクラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】ドン!!-2(自分の場のドン!!を指定の数ドン!!デッキに戻すことができる)：相手のコスト4以下のキャラ1枚までを、持ち主のデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガレーラカンパニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このステージをレストにできる：自分のリーダーが「アイスバーグ」の場合、ドン!!デッキからドン!!1枚までを、レストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CP9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【自分のターン中】【ターン1回】自分の手札2枚を捨てることができる：相手のキャラがKOされた時、このリーダーをアクティブにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・リンリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四皇,ビッグ・マム海賊団</t>
+    <rPh sb="0" eb="2">
+      <t>ヨンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×2】【アタック時】②(コストエリアのドン!!を指定の数レストにできる),自分の手札1枚を捨てることができる：自分のライフが1枚以下の場合、デッキの上から1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イッショウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海軍</t>
+    <rPh sb="0" eb="2">
+      <t>カイグン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【自分のターン中】相手のキャラすべてをコスト-3。【登場時】相手の手札が6枚以上ある場合、相手の手札2枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴェルゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海軍,ドンキホーテ海賊団</t>
+    <rPh sb="0" eb="2">
+      <t>カイグン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】このキャラはバトルでKOされない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のトラッシュの『CP』を含む特徴を持つカード2枚を好きな順番でデッキの下に置くことができる：相手のコスト3以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】カード2枚を引き、自分の手札2枚を捨てる。その後、相手のキャラ1枚までを、このターン中、コスト-2。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クマドリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーギー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>世界政府</t>
+    <rPh sb="0" eb="4">
+      <t>セカイセイフ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から5枚を見て、カード2枚までを、トラッシュに置く。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャブラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スパンダム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが『CP』を含む特徴を持つ場合、デッキの上から3枚を見て、「スパンダム」以外の『CP』を含む特徴を持つカード1枚までを公開し、手札に加える。その後、残りをトラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フクロウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このキャラは効果でKOされない。【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランニュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から3枚を見て、「ブランニュー」以外の特徴《海軍》を持つカード1枚までを公開し、手札に加える。その後、残りをトラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーノさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】このキャラは【ブロッカー】を得る。(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【KO時】自分のトラッシュからコスト4以下の『CP』を含む特徴を持つキャラカード1枚までを、レストで登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手の元々の効果のないキャラ1枚までを、このターン中、コスト0にする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のトラッシュの『CP』を含む特徴を持つカード2枚を好きな順番でデッキの下に置くことができる：このキャラは、このターン中、【速攻】を得る。(このカードは登場したターンにアタックできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワンゼ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CP7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分の手札1枚を捨てることができる：自分のリーダーが『CP』を含む特徴を持つ場合、相手のコスト1以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空気開扉:エアドア</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】自分のリーダーが『CP』を含む特徴を持つ場合、自分のデッキの上から5枚を見て、コスト5以下の『CP』を含む特徴を持つキャラカード1枚までを、登場させる。その後、残りをトラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分のトラッシュからコスト3以下の黒のキャラカード1枚までを、登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石鹸羊:ソープ・シープ</t>
+    <rPh sb="0" eb="2">
+      <t>セッケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒツジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手のキャラ2枚までを、このターン中、コスト-2。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手は自身の手札1枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嵐脚 周断:ランキャク あまねだち</t>
+    <rPh sb="0" eb="1">
+      <t>アラシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手のコスト0のキャラか、相手のコスト3以下のステージ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】カード2枚を引く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>六王銃:ロクオウガン</t>
+    <rPh sb="0" eb="3">
+      <t>ロクオウジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】カード1枚を引く。その後、相手のコスト1以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エニエスロビー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このステージをレストにできる：自分のリーダーが『CP』を含む特徴を持つ場合、相手のキャラ1枚までを、このターン中、コスト-2。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】このカードを登場させる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・カタクリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビッグ・マム海賊団</t>
+    <rPh sb="6" eb="9">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【アタック時】自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。その後、このリーダーは、このバトル中、パワー+1000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キングバーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビッグ・マム海賊団,ホーミーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分のライフの上か下から1枚をトラッシュに置くことができる：このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケイミー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人魚族</t>
+    <rPh sb="0" eb="3">
+      <t>ニンギョゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴィンスモーク家</t>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×2】【アタック時】自分のライフの上か下から1枚を手札に加えることができる：自分のデッキの上から1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>始末屋ボビン:しまつやボビン</t>
+    <rPh sb="0" eb="2">
+      <t>シマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【登場時】自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・オーブン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【アタック時】自分の手札から【トリガー】を持つカード1枚を捨てることができる：このキャラは、このバトル中、パワー+3000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・オペラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・ガレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・クラッカー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】自分のライフの枚数が相手より少ない場合、このキャラは【ダブルアタック】を得て、パワー+1000。(このカードが与えるダメージは2になる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分の手札1枚を捨てることができる：このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・シフォン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のライフの上か下から1枚をトラッシュに置くことができる：自分のデッキの上から1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・スムージー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】自分のライフの上か下から1枚を手札に加えることができる：このキャラは、このバトル中、パワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・プラリネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人魚族,タイヨウの海賊団</t>
+    <rPh sb="0" eb="3">
+      <t>ニンギョゾク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・プリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から4枚を見て、「シャーロット・プリン」以外の特徴《ビッグ・マム海賊団》を持つカードか「サンジ」1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・ペロスペロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【KO時】自分のデッキの上から3枚を見て、特徴《ビッグ・マム海賊団》を持つカード1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のリーダーが特徴《ビッグ・マム海賊団》を持つ場合、自分のデッキの上から1枚までを、ライフの上に加える。その後、相手のライフの上から1枚までを、トラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュトロイゼン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分の手札から【トリガー】を持つカード1枚を捨てることができる：相手のコスト1以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しらほし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】カード3枚を引き、自分の手札2枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナポレオン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このキャラをレストにできる：自分の「シャーロット・リンリン」1枚までを、次の自分のターン開始時まで、パワー+1000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>威国:いこく</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分のリーダーかキャラ1枚までを、このバトル中、パワー+5000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分の手札2枚を捨てることができる：自分のデッキの上から1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斬・切・餅:ザン・キリ・モチ</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】自分のライフが相手より少ない場合、相手のコスト4以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熱海温泉:ねっかいじごく</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手のライフが4枚以上の場合、相手のライフの上から1枚までを、トラッシュに置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雷霆:ライテイ</t>
+    <rPh sb="0" eb="2">
+      <t>ライテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】自分のライフの上から1枚をトラッシュに置くことができる：相手のコスト5以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手のコスト5以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そげキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そげきの島</t>
+    <rPh sb="4" eb="5">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルール上、このカードはカード名を「ウソップ」としても扱う。【登場時】コスト6以下のキャラ1枚までを、持ち主の手札に戻す。その後、カード2枚を引き、自分の手札2枚を捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】コスト8以下のキャラ1枚までを、持ち主のライフの上か下に表向きで加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫,黒</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑,黄</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒,黄</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7557,10 +8823,10 @@
   <dimension ref="A1:AJ436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="X304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AB420" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C334" sqref="C334"/>
+      <selection pane="bottomRight" activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -7844,18 +9110,18 @@
       <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>53</v>
+      <c r="J3" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="14">
-        <v>1000</v>
+      <c r="N3" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="13" t="s">
@@ -13960,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="27" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -14957,12 +16223,16 @@
       <c r="J68" s="3">
         <v>4</v>
       </c>
-      <c r="K68" s="3"/>
+      <c r="K68" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N68" s="3"/>
+      <c r="N68" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O68" s="9" t="s">
         <v>400</v>
       </c>
@@ -15061,12 +16331,16 @@
       <c r="J69" s="3">
         <v>6</v>
       </c>
-      <c r="K69" s="3"/>
+      <c r="K69" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N69" s="3"/>
+      <c r="N69" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O69" s="9" t="s">
         <v>403</v>
       </c>
@@ -15165,12 +16439,16 @@
       <c r="J70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="N70" s="3"/>
+      <c r="N70" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O70" s="9" t="s">
         <v>406</v>
       </c>
@@ -15267,12 +16545,16 @@
       <c r="J71" s="3">
         <v>3</v>
       </c>
-      <c r="K71" s="3"/>
+      <c r="K71" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N71" s="3"/>
+      <c r="N71" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O71" s="9" t="s">
         <v>409</v>
       </c>
@@ -15378,7 +16660,9 @@
       <c r="M72" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="N72" s="14"/>
+      <c r="N72" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O72" s="14" t="s">
         <v>656</v>
       </c>
@@ -15484,7 +16768,9 @@
       <c r="M73" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="N73" s="14"/>
+      <c r="N73" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O73" s="14" t="s">
         <v>659</v>
       </c>
@@ -15590,7 +16876,9 @@
       <c r="M74" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="N74" s="14"/>
+      <c r="N74" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O74" s="14" t="s">
         <v>662</v>
       </c>
@@ -18055,12 +19343,16 @@
       <c r="J97" s="13">
         <v>2</v>
       </c>
-      <c r="K97" s="13"/>
+      <c r="K97" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L97" s="13"/>
       <c r="M97" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="N97" s="14"/>
+      <c r="N97" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O97" s="14" t="s">
         <v>719</v>
       </c>
@@ -18159,12 +19451,16 @@
       <c r="J98" s="13">
         <v>4</v>
       </c>
-      <c r="K98" s="13"/>
+      <c r="K98" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L98" s="13"/>
       <c r="M98" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="N98" s="14"/>
+      <c r="N98" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O98" s="14" t="s">
         <v>722</v>
       </c>
@@ -18261,12 +19557,16 @@
       <c r="J99" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K99" s="13"/>
+      <c r="K99" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L99" s="13"/>
       <c r="M99" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="N99" s="14"/>
+      <c r="N99" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O99" s="14" t="s">
         <v>724</v>
       </c>
@@ -18365,12 +19665,16 @@
       <c r="J100" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K100" s="13"/>
+      <c r="K100" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L100" s="13"/>
       <c r="M100" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="N100" s="14"/>
+      <c r="N100" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O100" s="14" t="s">
         <v>727</v>
       </c>
@@ -18469,12 +19773,16 @@
       <c r="J101" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K101" s="13"/>
+      <c r="K101" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L101" s="13"/>
       <c r="M101" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="N101" s="14"/>
+      <c r="N101" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O101" s="14" t="s">
         <v>730</v>
       </c>
@@ -18582,7 +19890,9 @@
       <c r="M102" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="N102" s="14"/>
+      <c r="N102" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O102" s="14" t="s">
         <v>734</v>
       </c>
@@ -21155,12 +22465,16 @@
       <c r="J126" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K126" s="13"/>
+      <c r="K126" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L126" s="13"/>
       <c r="M126" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="N126" s="14"/>
+      <c r="N126" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O126" s="14" t="s">
         <v>787</v>
       </c>
@@ -21257,12 +22571,16 @@
       <c r="J127" s="13">
         <v>6</v>
       </c>
-      <c r="K127" s="13"/>
+      <c r="K127" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L127" s="13"/>
       <c r="M127" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="N127" s="14"/>
+      <c r="N127" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O127" s="14" t="s">
         <v>790</v>
       </c>
@@ -21359,12 +22677,16 @@
       <c r="J128" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K128" s="13"/>
+      <c r="K128" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L128" s="13"/>
       <c r="M128" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="N128" s="14"/>
+      <c r="N128" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O128" s="14" t="s">
         <v>792</v>
       </c>
@@ -21463,12 +22785,16 @@
       <c r="J129" s="13">
         <v>2</v>
       </c>
-      <c r="K129" s="13"/>
+      <c r="K129" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L129" s="13"/>
       <c r="M129" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="N129" s="14"/>
+      <c r="N129" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O129" s="14" t="s">
         <v>795</v>
       </c>
@@ -21567,12 +22893,16 @@
       <c r="J130" s="13">
         <v>3</v>
       </c>
-      <c r="K130" s="13"/>
+      <c r="K130" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L130" s="13"/>
       <c r="M130" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="N130" s="14"/>
+      <c r="N130" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O130" s="14" t="s">
         <v>798</v>
       </c>
@@ -21678,7 +23008,9 @@
       <c r="M131" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="N131" s="14"/>
+      <c r="N131" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O131" s="14" t="s">
         <v>802</v>
       </c>
@@ -21784,7 +23116,9 @@
       <c r="M132" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="N132" s="14"/>
+      <c r="N132" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O132" s="14" t="s">
         <v>806</v>
       </c>
@@ -21890,7 +23224,9 @@
       <c r="M133" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="N133" s="14"/>
+      <c r="N133" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O133" s="14" t="s">
         <v>809</v>
       </c>
@@ -24465,12 +25801,16 @@
       <c r="J157" s="13">
         <v>2</v>
       </c>
-      <c r="K157" s="13"/>
+      <c r="K157" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L157" s="13"/>
       <c r="M157" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="N157" s="14"/>
+      <c r="N157" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O157" s="14" t="s">
         <v>865</v>
       </c>
@@ -24569,12 +25909,16 @@
       <c r="J158" s="13">
         <v>2</v>
       </c>
-      <c r="K158" s="13"/>
+      <c r="K158" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L158" s="13"/>
       <c r="M158" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="N158" s="14"/>
+      <c r="N158" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O158" s="14" t="s">
         <v>868</v>
       </c>
@@ -24673,12 +26017,16 @@
       <c r="J159" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K159" s="13"/>
+      <c r="K159" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L159" s="13"/>
       <c r="M159" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="N159" s="14"/>
+      <c r="N159" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O159" s="14" t="s">
         <v>871</v>
       </c>
@@ -24777,12 +26125,16 @@
       <c r="J160" s="13">
         <v>3</v>
       </c>
-      <c r="K160" s="13"/>
+      <c r="K160" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L160" s="13"/>
       <c r="M160" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="N160" s="14"/>
+      <c r="N160" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O160" s="14" t="s">
         <v>874</v>
       </c>
@@ -24879,12 +26231,16 @@
       <c r="J161" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K161" s="13"/>
+      <c r="K161" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L161" s="13"/>
       <c r="M161" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="N161" s="14"/>
+      <c r="N161" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O161" s="14" t="s">
         <v>876</v>
       </c>
@@ -24990,7 +26346,9 @@
       <c r="M162" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="N162" s="14"/>
+      <c r="N162" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O162" s="14" t="s">
         <v>877</v>
       </c>
@@ -27565,12 +28923,16 @@
       <c r="J186" s="13">
         <v>4</v>
       </c>
-      <c r="K186" s="13"/>
+      <c r="K186" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L186" s="13"/>
       <c r="M186" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="N186" s="14"/>
+      <c r="N186" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O186" s="14" t="s">
         <v>917</v>
       </c>
@@ -27669,12 +29031,16 @@
       <c r="J187" s="13">
         <v>2</v>
       </c>
-      <c r="K187" s="13"/>
+      <c r="K187" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L187" s="13"/>
       <c r="M187" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="N187" s="14"/>
+      <c r="N187" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O187" s="14" t="s">
         <v>919</v>
       </c>
@@ -27773,12 +29139,16 @@
       <c r="J188" s="13">
         <v>2</v>
       </c>
-      <c r="K188" s="13"/>
+      <c r="K188" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L188" s="13"/>
       <c r="M188" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="N188" s="14"/>
+      <c r="N188" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O188" s="14" t="s">
         <v>922</v>
       </c>
@@ -27875,12 +29245,16 @@
       <c r="J189" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K189" s="13"/>
+      <c r="K189" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L189" s="13"/>
       <c r="M189" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="N189" s="14"/>
+      <c r="N189" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O189" s="14" t="s">
         <v>924</v>
       </c>
@@ -27979,12 +29353,16 @@
       <c r="J190" s="13">
         <v>2</v>
       </c>
-      <c r="K190" s="13"/>
+      <c r="K190" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L190" s="13"/>
       <c r="M190" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="N190" s="14"/>
+      <c r="N190" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O190" s="14" t="s">
         <v>926</v>
       </c>
@@ -28308,7 +29686,9 @@
       <c r="M193" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="N193" s="14"/>
+      <c r="N193" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O193" s="14" t="s">
         <v>1179</v>
       </c>
@@ -28414,7 +29794,9 @@
       <c r="M194" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="N194" s="14"/>
+      <c r="N194" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O194" s="14" t="s">
         <v>1182</v>
       </c>
@@ -30447,12 +31829,16 @@
       <c r="J213" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K213" s="13"/>
+      <c r="K213" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L213" s="13"/>
       <c r="M213" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="N213" s="14"/>
+      <c r="N213" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O213" s="14" t="s">
         <v>1225</v>
       </c>
@@ -30551,12 +31937,16 @@
       <c r="J214" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K214" s="13"/>
+      <c r="K214" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L214" s="13"/>
       <c r="M214" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="N214" s="14"/>
+      <c r="N214" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O214" s="14" t="s">
         <v>1228</v>
       </c>
@@ -30655,12 +32045,16 @@
       <c r="J215" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K215" s="13"/>
+      <c r="K215" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L215" s="13"/>
       <c r="M215" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="N215" s="14"/>
+      <c r="N215" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O215" s="14" t="s">
         <v>1231</v>
       </c>
@@ -30759,12 +32153,16 @@
       <c r="J216" s="13">
         <v>2</v>
       </c>
-      <c r="K216" s="13"/>
+      <c r="K216" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L216" s="13"/>
       <c r="M216" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="N216" s="14"/>
+      <c r="N216" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O216" s="14" t="s">
         <v>1234</v>
       </c>
@@ -30872,7 +32270,9 @@
       <c r="M217" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="N217" s="14"/>
+      <c r="N217" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O217" s="14" t="s">
         <v>1238</v>
       </c>
@@ -30978,7 +32378,9 @@
       <c r="M218" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="N218" s="14"/>
+      <c r="N218" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O218" s="14" t="s">
         <v>1241</v>
       </c>
@@ -33011,12 +34413,16 @@
       <c r="J237" s="13">
         <v>3</v>
       </c>
-      <c r="K237" s="13"/>
+      <c r="K237" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L237" s="13"/>
       <c r="M237" s="13" t="s">
         <v>1273</v>
       </c>
-      <c r="N237" s="14"/>
+      <c r="N237" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O237" s="14" t="s">
         <v>1281</v>
       </c>
@@ -33115,12 +34521,16 @@
       <c r="J238" s="13">
         <v>2</v>
       </c>
-      <c r="K238" s="13"/>
+      <c r="K238" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L238" s="13"/>
       <c r="M238" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="N238" s="14"/>
+      <c r="N238" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O238" s="14" t="s">
         <v>1284</v>
       </c>
@@ -33219,12 +34629,16 @@
       <c r="J239" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K239" s="13"/>
+      <c r="K239" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L239" s="13"/>
       <c r="M239" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="N239" s="14"/>
+      <c r="N239" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O239" s="14" t="s">
         <v>1288</v>
       </c>
@@ -33323,12 +34737,16 @@
       <c r="J240" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K240" s="13"/>
+      <c r="K240" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L240" s="13"/>
       <c r="M240" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="N240" s="14"/>
+      <c r="N240" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O240" s="14" t="s">
         <v>1290</v>
       </c>
@@ -33434,7 +34852,9 @@
       <c r="M241" s="13" t="s">
         <v>1300</v>
       </c>
-      <c r="N241" s="14"/>
+      <c r="N241" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O241" s="14" t="s">
         <v>1292</v>
       </c>
@@ -35251,12 +36671,16 @@
       <c r="J258" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K258" s="13"/>
+      <c r="K258" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L258" s="13"/>
       <c r="M258" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N258" s="14"/>
+      <c r="N258" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O258" s="14" t="s">
         <v>1327</v>
       </c>
@@ -35355,12 +36779,16 @@
       <c r="J259" s="13">
         <v>2</v>
       </c>
-      <c r="K259" s="13"/>
+      <c r="K259" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L259" s="13"/>
       <c r="M259" s="13" t="s">
         <v>1330</v>
       </c>
-      <c r="N259" s="14"/>
+      <c r="N259" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O259" s="14" t="s">
         <v>1331</v>
       </c>
@@ -35459,12 +36887,16 @@
       <c r="J260" s="13">
         <v>0</v>
       </c>
-      <c r="K260" s="13"/>
+      <c r="K260" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L260" s="13"/>
       <c r="M260" s="13" t="s">
         <v>1321</v>
       </c>
-      <c r="N260" s="14"/>
+      <c r="N260" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O260" s="14" t="s">
         <v>1333</v>
       </c>
@@ -35563,12 +36995,16 @@
       <c r="J261" s="13">
         <v>3</v>
       </c>
-      <c r="K261" s="13"/>
+      <c r="K261" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L261" s="13"/>
       <c r="M261" s="13" t="s">
         <v>1300</v>
       </c>
-      <c r="N261" s="14"/>
+      <c r="N261" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O261" s="14" t="s">
         <v>1336</v>
       </c>
@@ -35667,12 +37103,16 @@
       <c r="J262" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K262" s="13"/>
+      <c r="K262" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L262" s="13"/>
       <c r="M262" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N262" s="14"/>
+      <c r="N262" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O262" s="14" t="s">
         <v>1339</v>
       </c>
@@ -35778,7 +37218,9 @@
       <c r="M263" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N263" s="14"/>
+      <c r="N263" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O263" s="14" t="s">
         <v>1341</v>
       </c>
@@ -35858,7 +37300,7 @@
         <v>1125</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>316</v>
+        <v>1978</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>364</v>
@@ -37703,12 +39145,16 @@
       <c r="J281" s="13">
         <v>2</v>
       </c>
-      <c r="K281" s="13"/>
+      <c r="K281" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L281" s="13"/>
       <c r="M281" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N281" s="14"/>
+      <c r="N281" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O281" s="14" t="s">
         <v>1378</v>
       </c>
@@ -37807,12 +39253,16 @@
       <c r="J282" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K282" s="13"/>
+      <c r="K282" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L282" s="13"/>
       <c r="M282" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N282" s="14"/>
+      <c r="N282" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O282" s="14" t="s">
         <v>1380</v>
       </c>
@@ -37911,12 +39361,16 @@
       <c r="J283" s="13">
         <v>3</v>
       </c>
-      <c r="K283" s="13"/>
+      <c r="K283" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L283" s="13"/>
       <c r="M283" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N283" s="14"/>
+      <c r="N283" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O283" s="14" t="s">
         <v>1384</v>
       </c>
@@ -38015,12 +39469,16 @@
       <c r="J284" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K284" s="13"/>
+      <c r="K284" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L284" s="13"/>
       <c r="M284" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="N284" s="14"/>
+      <c r="N284" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O284" s="14" t="s">
         <v>1385</v>
       </c>
@@ -38126,7 +39584,9 @@
       <c r="M285" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="N285" s="14"/>
+      <c r="N285" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O285" s="14" t="s">
         <v>1388</v>
       </c>
@@ -40701,12 +42161,16 @@
       <c r="J309" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K309" s="13"/>
+      <c r="K309" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L309" s="13"/>
       <c r="M309" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="N309" s="14"/>
+      <c r="N309" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O309" s="14" t="s">
         <v>1429</v>
       </c>
@@ -40805,12 +42269,16 @@
       <c r="J310" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K310" s="13"/>
+      <c r="K310" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L310" s="13"/>
       <c r="M310" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="N310" s="14"/>
+      <c r="N310" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O310" s="14" t="s">
         <v>1432</v>
       </c>
@@ -40909,12 +42377,16 @@
       <c r="J311" s="13">
         <v>2</v>
       </c>
-      <c r="K311" s="13"/>
+      <c r="K311" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="L311" s="13"/>
       <c r="M311" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="N311" s="14"/>
+      <c r="N311" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="O311" s="14" t="s">
         <v>1434</v>
       </c>
@@ -42843,12 +44315,16 @@
       <c r="J329" s="13">
         <v>7</v>
       </c>
-      <c r="K329" s="13"/>
+      <c r="K329" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="L329" s="13"/>
       <c r="M329" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="N329" s="14"/>
+      <c r="N329" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O329" s="14" t="s">
         <v>1728</v>
       </c>
@@ -42947,12 +44423,16 @@
       <c r="J330" s="13">
         <v>2</v>
       </c>
-      <c r="K330" s="13"/>
+      <c r="K330" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="L330" s="13"/>
       <c r="M330" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="N330" s="14"/>
+      <c r="N330" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O330" s="14" t="s">
         <v>1731</v>
       </c>
@@ -43051,12 +44531,16 @@
       <c r="J331" s="13">
         <v>3</v>
       </c>
-      <c r="K331" s="13"/>
+      <c r="K331" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="L331" s="13"/>
       <c r="M331" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="N331" s="14"/>
+      <c r="N331" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O331" s="14" t="s">
         <v>1734</v>
       </c>
@@ -43155,12 +44639,16 @@
       <c r="J332" s="13">
         <v>2</v>
       </c>
-      <c r="K332" s="13"/>
+      <c r="K332" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="L332" s="13"/>
       <c r="M332" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="N332" s="14"/>
+      <c r="N332" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O332" s="14" t="s">
         <v>1737</v>
       </c>
@@ -43256,15 +44744,19 @@
       <c r="I333" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J333" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K333" s="13"/>
+      <c r="J333" s="9">
+        <v>1</v>
+      </c>
+      <c r="K333" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="L333" s="13"/>
       <c r="M333" s="13" t="s">
         <v>1567</v>
       </c>
-      <c r="N333" s="14"/>
+      <c r="N333" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O333" s="14" t="s">
         <v>1740</v>
       </c>
@@ -43337,15 +44829,17 @@
       <c r="B334" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="C334" s="7"/>
+      <c r="C334" s="7" t="s">
+        <v>1741</v>
+      </c>
       <c r="D334" s="13" t="s">
         <v>1596</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F334" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G334" s="13" t="s">
         <v>1575</v>
@@ -43354,22 +44848,26 @@
         <v>6</v>
       </c>
       <c r="I334" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J334" s="9">
         <v>5</v>
       </c>
-      <c r="J334" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K334" s="13" t="s">
-        <v>47</v>
+      <c r="K334" s="9">
+        <v>5000</v>
       </c>
       <c r="L334" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M334" s="13"/>
-      <c r="N334" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O334" s="14"/>
+        <v>386</v>
+      </c>
+      <c r="M334" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N334" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O334" s="14" t="s">
+        <v>1745</v>
+      </c>
       <c r="P334" s="13" t="s">
         <v>0</v>
       </c>
@@ -43377,8 +44875,8 @@
       <c r="R334" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S334" s="13" t="s">
-        <v>0</v>
+      <c r="S334" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="T334" s="13" t="s">
         <v>0</v>
@@ -43413,8 +44911,8 @@
       <c r="AD334" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AE334" s="13" t="s">
-        <v>0</v>
+      <c r="AE334" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AF334" s="13" t="s">
         <v>0</v>
@@ -43439,15 +44937,17 @@
       <c r="B335" s="7" t="s">
         <v>1464</v>
       </c>
-      <c r="C335" s="7"/>
+      <c r="C335" s="7" t="s">
+        <v>1746</v>
+      </c>
       <c r="D335" s="13" t="s">
         <v>1597</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>292</v>
+        <v>1979</v>
       </c>
       <c r="F335" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G335" s="13" t="s">
         <v>1575</v>
@@ -43456,22 +44956,26 @@
         <v>6</v>
       </c>
       <c r="I335" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J335" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K335" s="13" t="s">
-        <v>47</v>
+        <v>1743</v>
+      </c>
+      <c r="J335" s="9">
+        <v>4</v>
+      </c>
+      <c r="K335" s="9">
+        <v>5000</v>
       </c>
       <c r="L335" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M335" s="13"/>
-      <c r="N335" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O335" s="14"/>
+        <v>386</v>
+      </c>
+      <c r="M335" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N335" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O335" s="14" t="s">
+        <v>1748</v>
+      </c>
       <c r="P335" s="13" t="s">
         <v>0</v>
       </c>
@@ -43482,8 +44986,8 @@
       <c r="S335" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T335" s="13" t="s">
-        <v>0</v>
+      <c r="T335" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U335" s="13" t="s">
         <v>0</v>
@@ -43512,11 +45016,11 @@
       <c r="AC335" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD335" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE335" s="13" t="s">
-        <v>0</v>
+      <c r="AD335" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE335" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AF335" s="13" t="s">
         <v>0</v>
@@ -43541,12 +45045,14 @@
       <c r="B336" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="C336" s="7"/>
+      <c r="C336" s="7" t="s">
+        <v>1749</v>
+      </c>
       <c r="D336" s="13" t="s">
         <v>1598</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F336" s="13" t="s">
         <v>30</v>
@@ -43560,17 +45066,19 @@
       <c r="I336" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J336" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K336" s="13" t="s">
-        <v>47</v>
+      <c r="J336" s="9">
+        <v>1</v>
+      </c>
+      <c r="K336" s="9">
+        <v>3000</v>
       </c>
       <c r="L336" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M336" s="13"/>
-      <c r="N336" s="14">
+        <v>1750</v>
+      </c>
+      <c r="M336" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N336" s="9">
         <v>1000</v>
       </c>
       <c r="O336" s="14"/>
@@ -43643,12 +45151,14 @@
       <c r="B337" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="C337" s="7"/>
+      <c r="C337" s="7" t="s">
+        <v>1752</v>
+      </c>
       <c r="D337" s="13" t="s">
         <v>1599</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F337" s="13" t="s">
         <v>30</v>
@@ -43660,28 +45170,32 @@
         <v>6</v>
       </c>
       <c r="I337" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J337" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K337" s="13" t="s">
-        <v>47</v>
+        <v>1753</v>
+      </c>
+      <c r="J337" s="9">
+        <v>4</v>
+      </c>
+      <c r="K337" s="9">
+        <v>5000</v>
       </c>
       <c r="L337" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M337" s="13"/>
-      <c r="N337" s="14">
+      <c r="M337" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N337" s="9">
         <v>1000</v>
       </c>
-      <c r="O337" s="14"/>
+      <c r="O337" s="14" t="s">
+        <v>1755</v>
+      </c>
       <c r="P337" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q337" s="14"/>
-      <c r="R337" s="13" t="s">
-        <v>0</v>
+      <c r="R337" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S337" s="13" t="s">
         <v>0</v>
@@ -43745,12 +45259,14 @@
       <c r="B338" s="7" t="s">
         <v>1467</v>
       </c>
-      <c r="C338" s="7"/>
+      <c r="C338" s="7" t="s">
+        <v>1756</v>
+      </c>
       <c r="D338" s="13" t="s">
         <v>1600</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F338" s="13" t="s">
         <v>30</v>
@@ -43762,28 +45278,32 @@
         <v>6</v>
       </c>
       <c r="I338" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J338" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J338" s="9">
         <v>6</v>
       </c>
-      <c r="K338" s="13" t="s">
-        <v>47</v>
+      <c r="K338" s="9">
+        <v>7000</v>
       </c>
       <c r="L338" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M338" s="13"/>
-      <c r="N338" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O338" s="14"/>
+        <v>1758</v>
+      </c>
+      <c r="M338" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N338" s="9">
+        <v>0</v>
+      </c>
+      <c r="O338" s="14" t="s">
+        <v>1759</v>
+      </c>
       <c r="P338" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q338" s="14"/>
-      <c r="R338" s="13" t="s">
-        <v>0</v>
+      <c r="R338" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S338" s="13" t="s">
         <v>0</v>
@@ -43818,8 +45338,8 @@
       <c r="AC338" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD338" s="13" t="s">
-        <v>0</v>
+      <c r="AD338" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE338" s="13" t="s">
         <v>0</v>
@@ -43833,8 +45353,8 @@
       <c r="AH338" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI338" s="13" t="s">
-        <v>0</v>
+      <c r="AI338" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AJ338" s="13" t="s">
         <v>0</v>
@@ -43847,12 +45367,14 @@
       <c r="B339" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="C339" s="7"/>
+      <c r="C339" s="7" t="s">
+        <v>1760</v>
+      </c>
       <c r="D339" s="13" t="s">
         <v>1601</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F339" s="13" t="s">
         <v>30</v>
@@ -43864,28 +45386,34 @@
         <v>6</v>
       </c>
       <c r="I339" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J339" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K339" s="13" t="s">
-        <v>47</v>
+        <v>1761</v>
+      </c>
+      <c r="J339" s="9">
+        <v>4</v>
+      </c>
+      <c r="K339" s="9">
+        <v>3000</v>
       </c>
       <c r="L339" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M339" s="13"/>
-      <c r="N339" s="14">
+      <c r="M339" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N339" s="9">
         <v>1000</v>
       </c>
-      <c r="O339" s="14"/>
-      <c r="P339" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q339" s="14"/>
-      <c r="R339" s="13" t="s">
-        <v>0</v>
+      <c r="O339" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P339" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="R339" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S339" s="13" t="s">
         <v>0</v>
@@ -43949,12 +45477,14 @@
       <c r="B340" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="C340" s="7"/>
+      <c r="C340" s="7" t="s">
+        <v>1764</v>
+      </c>
       <c r="D340" s="13" t="s">
         <v>1602</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F340" s="13" t="s">
         <v>30</v>
@@ -43968,26 +45498,30 @@
       <c r="I340" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J340" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K340" s="13" t="s">
-        <v>47</v>
+      <c r="J340" s="9">
+        <v>3</v>
+      </c>
+      <c r="K340" s="9">
+        <v>4000</v>
       </c>
       <c r="L340" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M340" s="13"/>
-      <c r="N340" s="14">
+        <v>386</v>
+      </c>
+      <c r="M340" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N340" s="9">
         <v>1000</v>
       </c>
-      <c r="O340" s="14"/>
+      <c r="O340" s="14" t="s">
+        <v>1765</v>
+      </c>
       <c r="P340" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q340" s="14"/>
-      <c r="R340" s="13" t="s">
-        <v>0</v>
+      <c r="R340" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S340" s="13" t="s">
         <v>0</v>
@@ -44051,12 +45585,14 @@
       <c r="B341" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="C341" s="7"/>
+      <c r="C341" s="7" t="s">
+        <v>1400</v>
+      </c>
       <c r="D341" s="13" t="s">
         <v>1603</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F341" s="13" t="s">
         <v>30</v>
@@ -44068,28 +45604,32 @@
         <v>6</v>
       </c>
       <c r="I341" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J341" s="9">
         <v>5</v>
       </c>
-      <c r="J341" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K341" s="13" t="s">
-        <v>47</v>
+      <c r="K341" s="9">
+        <v>6000</v>
       </c>
       <c r="L341" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M341" s="13"/>
-      <c r="N341" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O341" s="14"/>
+        <v>377</v>
+      </c>
+      <c r="M341" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N341" s="9">
+        <v>0</v>
+      </c>
+      <c r="O341" s="14" t="s">
+        <v>1766</v>
+      </c>
       <c r="P341" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q341" s="14"/>
-      <c r="R341" s="13" t="s">
-        <v>0</v>
+      <c r="R341" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S341" s="13" t="s">
         <v>0</v>
@@ -44153,12 +45693,14 @@
       <c r="B342" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="C342" s="7"/>
+      <c r="C342" s="7" t="s">
+        <v>1767</v>
+      </c>
       <c r="D342" s="13" t="s">
         <v>1604</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F342" s="13" t="s">
         <v>30</v>
@@ -44170,28 +45712,34 @@
         <v>6</v>
       </c>
       <c r="I342" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J342" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K342" s="13" t="s">
-        <v>47</v>
+        <v>1761</v>
+      </c>
+      <c r="J342" s="9">
+        <v>4</v>
+      </c>
+      <c r="K342" s="9">
+        <v>3000</v>
       </c>
       <c r="L342" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M342" s="13"/>
-      <c r="N342" s="14">
+        <v>1758</v>
+      </c>
+      <c r="M342" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N342" s="9">
         <v>1000</v>
       </c>
-      <c r="O342" s="14"/>
-      <c r="P342" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q342" s="14"/>
-      <c r="R342" s="13" t="s">
-        <v>0</v>
+      <c r="O342" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="P342" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q342" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="R342" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S342" s="13" t="s">
         <v>0</v>
@@ -44255,12 +45803,14 @@
       <c r="B343" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="C343" s="7"/>
+      <c r="C343" s="7" t="s">
+        <v>698</v>
+      </c>
       <c r="D343" s="13" t="s">
         <v>1605</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F343" s="13" t="s">
         <v>30</v>
@@ -44272,28 +45822,34 @@
         <v>6</v>
       </c>
       <c r="I343" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J343" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K343" s="13" t="s">
-        <v>47</v>
+        <v>1753</v>
+      </c>
+      <c r="J343" s="9">
+        <v>2</v>
+      </c>
+      <c r="K343" s="9">
+        <v>2000</v>
       </c>
       <c r="L343" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M343" s="13"/>
-      <c r="N343" s="14">
+        <v>1769</v>
+      </c>
+      <c r="M343" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="N343" s="9">
         <v>1000</v>
       </c>
-      <c r="O343" s="14"/>
-      <c r="P343" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q343" s="14"/>
-      <c r="R343" s="13" t="s">
-        <v>0</v>
+      <c r="O343" s="14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="P343" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q343" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="R343" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S343" s="13" t="s">
         <v>0</v>
@@ -44357,12 +45913,14 @@
       <c r="B344" s="7" t="s">
         <v>1473</v>
       </c>
-      <c r="C344" s="7"/>
+      <c r="C344" s="7" t="s">
+        <v>1772</v>
+      </c>
       <c r="D344" s="13" t="s">
         <v>1606</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F344" s="13" t="s">
         <v>30</v>
@@ -44376,20 +45934,24 @@
       <c r="I344" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J344" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K344" s="13" t="s">
-        <v>47</v>
+      <c r="J344" s="9">
+        <v>2</v>
+      </c>
+      <c r="K344" s="9">
+        <v>2000</v>
       </c>
       <c r="L344" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M344" s="13"/>
-      <c r="N344" s="14">
+      <c r="M344" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N344" s="9">
         <v>1000</v>
       </c>
-      <c r="O344" s="14"/>
+      <c r="O344" s="14" t="s">
+        <v>1773</v>
+      </c>
       <c r="P344" s="13" t="s">
         <v>0</v>
       </c>
@@ -44439,8 +46001,8 @@
       <c r="AF344" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG344" s="13" t="s">
-        <v>0</v>
+      <c r="AG344" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH344" s="13" t="s">
         <v>0</v>
@@ -44459,12 +46021,14 @@
       <c r="B345" s="7" t="s">
         <v>1474</v>
       </c>
-      <c r="C345" s="7"/>
+      <c r="C345" s="7" t="s">
+        <v>1311</v>
+      </c>
       <c r="D345" s="13" t="s">
         <v>1607</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F345" s="13" t="s">
         <v>30</v>
@@ -44478,20 +46042,24 @@
       <c r="I345" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J345" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K345" s="13" t="s">
-        <v>47</v>
+      <c r="J345" s="9">
+        <v>3</v>
+      </c>
+      <c r="K345" s="9">
+        <v>5000</v>
       </c>
       <c r="L345" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M345" s="13"/>
-      <c r="N345" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O345" s="14"/>
+        <v>386</v>
+      </c>
+      <c r="M345" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N345" s="9">
+        <v>0</v>
+      </c>
+      <c r="O345" s="14" t="s">
+        <v>1775</v>
+      </c>
       <c r="P345" s="13" t="s">
         <v>0</v>
       </c>
@@ -44561,12 +46129,14 @@
       <c r="B346" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="C346" s="7"/>
+      <c r="C346" s="7" t="s">
+        <v>1776</v>
+      </c>
       <c r="D346" s="13" t="s">
         <v>1608</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F346" s="13" t="s">
         <v>30</v>
@@ -44578,26 +46148,30 @@
         <v>6</v>
       </c>
       <c r="I346" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J346" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K346" s="13" t="s">
-        <v>47</v>
+        <v>1761</v>
+      </c>
+      <c r="J346" s="9">
+        <v>4</v>
+      </c>
+      <c r="K346" s="9">
+        <v>4000</v>
       </c>
       <c r="L346" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M346" s="13"/>
-      <c r="N346" s="14">
-        <v>1000</v>
+        <v>386</v>
+      </c>
+      <c r="M346" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="N346" s="9">
+        <v>2000</v>
       </c>
       <c r="O346" s="14"/>
-      <c r="P346" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q346" s="14"/>
+      <c r="P346" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q346" s="14" t="s">
+        <v>1778</v>
+      </c>
       <c r="R346" s="13" t="s">
         <v>0</v>
       </c>
@@ -44663,12 +46237,14 @@
       <c r="B347" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="C347" s="7"/>
+      <c r="C347" s="7" t="s">
+        <v>1779</v>
+      </c>
       <c r="D347" s="13" t="s">
         <v>1609</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F347" s="13" t="s">
         <v>30</v>
@@ -44680,28 +46256,32 @@
         <v>6</v>
       </c>
       <c r="I347" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J347" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K347" s="13" t="s">
-        <v>47</v>
+        <v>1761</v>
+      </c>
+      <c r="J347" s="9">
+        <v>4</v>
+      </c>
+      <c r="K347" s="9">
+        <v>5000</v>
       </c>
       <c r="L347" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M347" s="13"/>
-      <c r="N347" s="14">
+        <v>386</v>
+      </c>
+      <c r="M347" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N347" s="9">
         <v>1000</v>
       </c>
-      <c r="O347" s="14"/>
+      <c r="O347" s="14" t="s">
+        <v>1780</v>
+      </c>
       <c r="P347" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q347" s="14"/>
-      <c r="R347" s="13" t="s">
-        <v>0</v>
+      <c r="R347" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S347" s="13" t="s">
         <v>0</v>
@@ -44765,12 +46345,14 @@
       <c r="B348" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C348" s="7"/>
+      <c r="C348" s="7" t="s">
+        <v>1781</v>
+      </c>
       <c r="D348" s="13" t="s">
         <v>1610</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F348" s="13" t="s">
         <v>30</v>
@@ -44784,17 +46366,19 @@
       <c r="I348" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J348" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K348" s="13" t="s">
-        <v>47</v>
+      <c r="J348" s="9">
+        <v>2</v>
+      </c>
+      <c r="K348" s="9">
+        <v>4000</v>
       </c>
       <c r="L348" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M348" s="13"/>
-      <c r="N348" s="14">
+      <c r="M348" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N348" s="9">
         <v>1000</v>
       </c>
       <c r="O348" s="14"/>
@@ -44867,15 +46451,17 @@
       <c r="B349" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="C349" s="7"/>
+      <c r="C349" s="7" t="s">
+        <v>1783</v>
+      </c>
       <c r="D349" s="13" t="s">
         <v>1611</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F349" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G349" s="13" t="s">
         <v>1575</v>
@@ -44886,24 +46472,30 @@
       <c r="I349" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J349" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K349" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L349" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M349" s="13"/>
-      <c r="N349" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O349" s="14"/>
-      <c r="P349" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q349" s="14"/>
+      <c r="J349" s="9">
+        <v>3</v>
+      </c>
+      <c r="K349" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L349" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M349" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N349" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O349" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="P349" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q349" s="14" t="s">
+        <v>1785</v>
+      </c>
       <c r="R349" s="13" t="s">
         <v>0</v>
       </c>
@@ -44931,8 +46523,8 @@
       <c r="Z349" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA349" s="13" t="s">
-        <v>0</v>
+      <c r="AA349" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB349" s="13" t="s">
         <v>0</v>
@@ -44969,15 +46561,17 @@
       <c r="B350" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C350" s="7"/>
+      <c r="C350" s="7" t="s">
+        <v>1786</v>
+      </c>
       <c r="D350" s="13" t="s">
         <v>1612</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F350" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G350" s="13" t="s">
         <v>1575</v>
@@ -44988,24 +46582,30 @@
       <c r="I350" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J350" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K350" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L350" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M350" s="13"/>
-      <c r="N350" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O350" s="14"/>
-      <c r="P350" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q350" s="14"/>
+      <c r="J350" s="9">
+        <v>1</v>
+      </c>
+      <c r="K350" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L350" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M350" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="N350" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O350" s="14" t="s">
+        <v>1788</v>
+      </c>
+      <c r="P350" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q350" s="14" t="s">
+        <v>1789</v>
+      </c>
       <c r="R350" s="13" t="s">
         <v>0</v>
       </c>
@@ -45033,8 +46633,8 @@
       <c r="Z350" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA350" s="13" t="s">
-        <v>0</v>
+      <c r="AA350" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB350" s="13" t="s">
         <v>0</v>
@@ -45071,15 +46671,17 @@
       <c r="B351" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="C351" s="7"/>
+      <c r="C351" s="7" t="s">
+        <v>1790</v>
+      </c>
       <c r="D351" s="13" t="s">
         <v>1613</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F351" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G351" s="13" t="s">
         <v>1575</v>
@@ -45088,26 +46690,32 @@
         <v>6</v>
       </c>
       <c r="I351" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J351" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K351" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L351" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M351" s="13"/>
-      <c r="N351" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O351" s="14"/>
-      <c r="P351" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q351" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J351" s="9">
+        <v>1</v>
+      </c>
+      <c r="K351" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L351" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M351" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N351" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O351" s="14" t="s">
+        <v>1791</v>
+      </c>
+      <c r="P351" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q351" s="14" t="s">
+        <v>1792</v>
+      </c>
       <c r="R351" s="13" t="s">
         <v>0</v>
       </c>
@@ -45135,8 +46743,8 @@
       <c r="Z351" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA351" s="13" t="s">
-        <v>0</v>
+      <c r="AA351" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB351" s="13" t="s">
         <v>0</v>
@@ -45173,15 +46781,17 @@
       <c r="B352" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="C352" s="7"/>
+      <c r="C352" s="7" t="s">
+        <v>1793</v>
+      </c>
       <c r="D352" s="13" t="s">
         <v>1614</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>292</v>
+        <v>1742</v>
       </c>
       <c r="F352" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G352" s="13" t="s">
         <v>1575</v>
@@ -45190,26 +46800,32 @@
         <v>6</v>
       </c>
       <c r="I352" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J352" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K352" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L352" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M352" s="13"/>
-      <c r="N352" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O352" s="14"/>
-      <c r="P352" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q352" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J352" s="9">
+        <v>1</v>
+      </c>
+      <c r="K352" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L352" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M352" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N352" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O352" s="14" t="s">
+        <v>1794</v>
+      </c>
+      <c r="P352" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q352" s="14" t="s">
+        <v>1795</v>
+      </c>
       <c r="R352" s="13" t="s">
         <v>0</v>
       </c>
@@ -45237,8 +46853,8 @@
       <c r="Z352" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA352" s="13" t="s">
-        <v>0</v>
+      <c r="AA352" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB352" s="13" t="s">
         <v>0</v>
@@ -45275,15 +46891,17 @@
       <c r="B353" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="C353" s="7"/>
+      <c r="C353" s="7" t="s">
+        <v>1796</v>
+      </c>
       <c r="D353" s="13" t="s">
         <v>1615</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F353" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G353" s="13" t="s">
         <v>1575</v>
@@ -45292,22 +46910,26 @@
         <v>6</v>
       </c>
       <c r="I353" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J353" s="9">
         <v>5</v>
       </c>
-      <c r="J353" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K353" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L353" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M353" s="13"/>
-      <c r="N353" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O353" s="14"/>
+      <c r="K353" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L353" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M353" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N353" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O353" s="14" t="s">
+        <v>1798</v>
+      </c>
       <c r="P353" s="13" t="s">
         <v>0</v>
       </c>
@@ -45348,8 +46970,8 @@
       <c r="AC353" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD353" s="13" t="s">
-        <v>0</v>
+      <c r="AD353" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE353" s="13" t="s">
         <v>0</v>
@@ -45377,12 +46999,14 @@
       <c r="B354" s="7" t="s">
         <v>1483</v>
       </c>
-      <c r="C354" s="7"/>
+      <c r="C354" s="7" t="s">
+        <v>1799</v>
+      </c>
       <c r="D354" s="13" t="s">
         <v>1616</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F354" s="13" t="s">
         <v>30</v>
@@ -45394,22 +47018,26 @@
         <v>6</v>
       </c>
       <c r="I354" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J354" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K354" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L354" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M354" s="13"/>
-      <c r="N354" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O354" s="14"/>
+        <v>1757</v>
+      </c>
+      <c r="J354" s="9">
+        <v>4</v>
+      </c>
+      <c r="K354" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L354" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M354" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N354" s="9">
+        <v>0</v>
+      </c>
+      <c r="O354" s="14" t="s">
+        <v>1800</v>
+      </c>
       <c r="P354" s="13" t="s">
         <v>0</v>
       </c>
@@ -45450,8 +47078,8 @@
       <c r="AC354" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD354" s="13" t="s">
-        <v>0</v>
+      <c r="AD354" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE354" s="13" t="s">
         <v>0</v>
@@ -45462,8 +47090,8 @@
       <c r="AG354" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AH354" s="13" t="s">
-        <v>0</v>
+      <c r="AH354" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AI354" s="13" t="s">
         <v>0</v>
@@ -45479,12 +47107,14 @@
       <c r="B355" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="C355" s="7"/>
+      <c r="C355" s="7" t="s">
+        <v>1809</v>
+      </c>
       <c r="D355" s="13" t="s">
         <v>1617</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F355" s="13" t="s">
         <v>30</v>
@@ -45498,26 +47128,30 @@
       <c r="I355" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J355" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K355" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L355" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M355" s="13"/>
-      <c r="N355" s="14">
+      <c r="J355" s="9">
+        <v>1</v>
+      </c>
+      <c r="K355" s="9">
+        <v>0</v>
+      </c>
+      <c r="L355" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M355" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N355" s="9">
         <v>1000</v>
       </c>
-      <c r="O355" s="14"/>
+      <c r="O355" s="14" t="s">
+        <v>1801</v>
+      </c>
       <c r="P355" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q355" s="14"/>
-      <c r="R355" s="13" t="s">
-        <v>0</v>
+      <c r="R355" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S355" s="13" t="s">
         <v>0</v>
@@ -45581,12 +47215,14 @@
       <c r="B356" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="C356" s="7"/>
+      <c r="C356" s="7" t="s">
+        <v>1802</v>
+      </c>
       <c r="D356" s="13" t="s">
         <v>1618</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F356" s="13" t="s">
         <v>30</v>
@@ -45600,20 +47236,24 @@
       <c r="I356" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J356" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K356" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L356" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M356" s="13"/>
-      <c r="N356" s="14">
+      <c r="J356" s="9">
+        <v>2</v>
+      </c>
+      <c r="K356" s="9">
+        <v>0</v>
+      </c>
+      <c r="L356" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M356" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N356" s="9">
         <v>1000</v>
       </c>
-      <c r="O356" s="14"/>
+      <c r="O356" s="14" t="s">
+        <v>1803</v>
+      </c>
       <c r="P356" s="13" t="s">
         <v>0</v>
       </c>
@@ -45683,12 +47323,14 @@
       <c r="B357" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="C357" s="7"/>
+      <c r="C357" s="7" t="s">
+        <v>1804</v>
+      </c>
       <c r="D357" s="13" t="s">
         <v>1619</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F357" s="13" t="s">
         <v>30</v>
@@ -45700,28 +47342,32 @@
         <v>6</v>
       </c>
       <c r="I357" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J357" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K357" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L357" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M357" s="13"/>
-      <c r="N357" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O357" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J357" s="9">
+        <v>1</v>
+      </c>
+      <c r="K357" s="9">
+        <v>0</v>
+      </c>
+      <c r="L357" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M357" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N357" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O357" s="14" t="s">
+        <v>1805</v>
+      </c>
       <c r="P357" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q357" s="14"/>
-      <c r="R357" s="13" t="s">
-        <v>0</v>
+      <c r="R357" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S357" s="13" t="s">
         <v>0</v>
@@ -45785,12 +47431,14 @@
       <c r="B358" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="C358" s="7"/>
+      <c r="C358" s="7" t="s">
+        <v>1806</v>
+      </c>
       <c r="D358" s="13" t="s">
         <v>1620</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F358" s="13" t="s">
         <v>30</v>
@@ -45802,22 +47450,26 @@
         <v>6</v>
       </c>
       <c r="I358" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J358" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K358" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L358" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M358" s="13"/>
-      <c r="N358" s="14">
+        <v>1761</v>
+      </c>
+      <c r="J358" s="9">
+        <v>3</v>
+      </c>
+      <c r="K358" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L358" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M358" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N358" s="9">
         <v>1000</v>
       </c>
-      <c r="O358" s="14"/>
+      <c r="O358" s="14" t="s">
+        <v>1807</v>
+      </c>
       <c r="P358" s="13" t="s">
         <v>0</v>
       </c>
@@ -45840,8 +47492,8 @@
       <c r="W358" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="X358" s="13" t="s">
-        <v>0</v>
+      <c r="X358" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Y358" s="13" t="s">
         <v>0</v>
@@ -45867,8 +47519,8 @@
       <c r="AF358" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG358" s="13" t="s">
-        <v>0</v>
+      <c r="AG358" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH358" s="13" t="s">
         <v>0</v>
@@ -45887,12 +47539,14 @@
       <c r="B359" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="C359" s="7"/>
+      <c r="C359" s="7" t="s">
+        <v>1808</v>
+      </c>
       <c r="D359" s="13" t="s">
         <v>1621</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F359" s="13" t="s">
         <v>30</v>
@@ -45906,17 +47560,19 @@
       <c r="I359" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J359" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K359" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L359" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M359" s="13"/>
-      <c r="N359" s="14">
+      <c r="J359" s="9">
+        <v>2</v>
+      </c>
+      <c r="K359" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L359" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M359" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N359" s="9">
         <v>1000</v>
       </c>
       <c r="O359" s="14"/>
@@ -45989,12 +47645,14 @@
       <c r="B360" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="C360" s="7"/>
+      <c r="C360" s="7" t="s">
+        <v>1810</v>
+      </c>
       <c r="D360" s="13" t="s">
         <v>1622</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F360" s="13" t="s">
         <v>30</v>
@@ -46006,28 +47664,32 @@
         <v>6</v>
       </c>
       <c r="I360" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J360" s="9">
         <v>5</v>
       </c>
-      <c r="J360" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K360" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L360" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M360" s="13"/>
-      <c r="N360" s="14">
+      <c r="K360" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L360" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M360" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N360" s="9">
         <v>1000</v>
       </c>
-      <c r="O360" s="14"/>
+      <c r="O360" s="14" t="s">
+        <v>1812</v>
+      </c>
       <c r="P360" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q360" s="14"/>
-      <c r="R360" s="13" t="s">
-        <v>0</v>
+      <c r="R360" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S360" s="13" t="s">
         <v>0</v>
@@ -46062,8 +47724,8 @@
       <c r="AC360" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD360" s="13" t="s">
-        <v>0</v>
+      <c r="AD360" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE360" s="13" t="s">
         <v>0</v>
@@ -46091,12 +47753,14 @@
       <c r="B361" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="C361" s="7"/>
+      <c r="C361" s="7" t="s">
+        <v>1813</v>
+      </c>
       <c r="D361" s="13" t="s">
         <v>1623</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F361" s="13" t="s">
         <v>30</v>
@@ -46108,28 +47772,32 @@
         <v>6</v>
       </c>
       <c r="I361" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J361" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K361" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L361" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M361" s="13"/>
-      <c r="N361" s="14">
+        <v>1761</v>
+      </c>
+      <c r="J361" s="9">
+        <v>2</v>
+      </c>
+      <c r="K361" s="9">
+        <v>0</v>
+      </c>
+      <c r="L361" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M361" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N361" s="9">
         <v>1000</v>
       </c>
-      <c r="O361" s="14"/>
+      <c r="O361" s="14" t="s">
+        <v>1814</v>
+      </c>
       <c r="P361" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q361" s="14"/>
-      <c r="R361" s="13" t="s">
-        <v>0</v>
+      <c r="R361" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S361" s="13" t="s">
         <v>0</v>
@@ -46193,12 +47861,14 @@
       <c r="B362" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="C362" s="7"/>
+      <c r="C362" s="7" t="s">
+        <v>1815</v>
+      </c>
       <c r="D362" s="13" t="s">
         <v>1624</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F362" s="13" t="s">
         <v>30</v>
@@ -46210,28 +47880,32 @@
         <v>6</v>
       </c>
       <c r="I362" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J362" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K362" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L362" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M362" s="13"/>
-      <c r="N362" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O362" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J362" s="9">
+        <v>3</v>
+      </c>
+      <c r="K362" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L362" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M362" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N362" s="9">
+        <v>0</v>
+      </c>
+      <c r="O362" s="14" t="s">
+        <v>1816</v>
+      </c>
       <c r="P362" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q362" s="14"/>
-      <c r="R362" s="13" t="s">
-        <v>0</v>
+      <c r="R362" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S362" s="13" t="s">
         <v>0</v>
@@ -46295,12 +47969,14 @@
       <c r="B363" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="C363" s="7"/>
+      <c r="C363" s="7" t="s">
+        <v>1817</v>
+      </c>
       <c r="D363" s="13" t="s">
         <v>1625</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F363" s="13" t="s">
         <v>30</v>
@@ -46312,22 +47988,26 @@
         <v>6</v>
       </c>
       <c r="I363" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J363" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K363" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L363" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M363" s="13"/>
-      <c r="N363" s="14">
+        <v>1761</v>
+      </c>
+      <c r="J363" s="9">
+        <v>2</v>
+      </c>
+      <c r="K363" s="9">
+        <v>0</v>
+      </c>
+      <c r="L363" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M363" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N363" s="9">
         <v>1000</v>
       </c>
-      <c r="O363" s="14"/>
+      <c r="O363" s="14" t="s">
+        <v>1818</v>
+      </c>
       <c r="P363" s="13" t="s">
         <v>0</v>
       </c>
@@ -46341,8 +48021,8 @@
       <c r="T363" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U363" s="13" t="s">
-        <v>0</v>
+      <c r="U363" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V363" s="13" t="s">
         <v>0</v>
@@ -46377,8 +48057,8 @@
       <c r="AF363" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG363" s="13" t="s">
-        <v>0</v>
+      <c r="AG363" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH363" s="13" t="s">
         <v>0</v>
@@ -46397,12 +48077,14 @@
       <c r="B364" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="C364" s="7"/>
+      <c r="C364" s="7" t="s">
+        <v>1420</v>
+      </c>
       <c r="D364" s="13" t="s">
         <v>1626</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F364" s="13" t="s">
         <v>30</v>
@@ -46414,22 +48096,26 @@
         <v>6</v>
       </c>
       <c r="I364" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J364" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K364" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L364" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M364" s="13"/>
-      <c r="N364" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J364" s="9">
+        <v>4</v>
+      </c>
+      <c r="K364" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L364" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M364" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N364" s="9">
         <v>1000</v>
       </c>
-      <c r="O364" s="14"/>
+      <c r="O364" s="14" t="s">
+        <v>1820</v>
+      </c>
       <c r="P364" s="13" t="s">
         <v>0</v>
       </c>
@@ -46443,8 +48129,8 @@
       <c r="T364" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U364" s="13" t="s">
-        <v>0</v>
+      <c r="U364" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V364" s="13" t="s">
         <v>0</v>
@@ -46470,8 +48156,8 @@
       <c r="AC364" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD364" s="13" t="s">
-        <v>0</v>
+      <c r="AD364" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE364" s="13" t="s">
         <v>0</v>
@@ -46499,12 +48185,14 @@
       <c r="B365" s="7" t="s">
         <v>1494</v>
       </c>
-      <c r="C365" s="7"/>
+      <c r="C365" s="7" t="s">
+        <v>1821</v>
+      </c>
       <c r="D365" s="13" t="s">
         <v>1627</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F365" s="13" t="s">
         <v>30</v>
@@ -46518,17 +48206,19 @@
       <c r="I365" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J365" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K365" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L365" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M365" s="13"/>
-      <c r="N365" s="14">
+      <c r="J365" s="9">
+        <v>1</v>
+      </c>
+      <c r="K365" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L365" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M365" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N365" s="9">
         <v>1000</v>
       </c>
       <c r="O365" s="14"/>
@@ -46601,12 +48291,14 @@
       <c r="B366" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="C366" s="7"/>
+      <c r="C366" s="7" t="s">
+        <v>1822</v>
+      </c>
       <c r="D366" s="13" t="s">
         <v>1628</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F366" s="13" t="s">
         <v>30</v>
@@ -46620,20 +48312,24 @@
       <c r="I366" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J366" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K366" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L366" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M366" s="13"/>
-      <c r="N366" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O366" s="14"/>
+      <c r="J366" s="9">
+        <v>1</v>
+      </c>
+      <c r="K366" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L366" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M366" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N366" s="9">
+        <v>0</v>
+      </c>
+      <c r="O366" s="14" t="s">
+        <v>1823</v>
+      </c>
       <c r="P366" s="13" t="s">
         <v>0</v>
       </c>
@@ -46674,8 +48370,8 @@
       <c r="AC366" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD366" s="13" t="s">
-        <v>0</v>
+      <c r="AD366" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE366" s="13" t="s">
         <v>0</v>
@@ -46703,15 +48399,17 @@
       <c r="B367" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="C367" s="7"/>
+      <c r="C367" s="7" t="s">
+        <v>1824</v>
+      </c>
       <c r="D367" s="13" t="s">
         <v>1629</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F367" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G367" s="13" t="s">
         <v>1575</v>
@@ -46722,24 +48420,30 @@
       <c r="I367" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J367" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K367" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L367" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M367" s="13"/>
-      <c r="N367" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O367" s="14"/>
-      <c r="P367" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q367" s="14"/>
+      <c r="J367" s="9">
+        <v>1</v>
+      </c>
+      <c r="K367" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L367" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M367" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N367" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O367" s="14" t="s">
+        <v>1826</v>
+      </c>
+      <c r="P367" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q367" s="14" t="s">
+        <v>1827</v>
+      </c>
       <c r="R367" s="13" t="s">
         <v>0</v>
       </c>
@@ -46770,8 +48474,8 @@
       <c r="AA367" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB367" s="13" t="s">
-        <v>0</v>
+      <c r="AB367" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AC367" s="13" t="s">
         <v>0</v>
@@ -46805,15 +48509,17 @@
       <c r="B368" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="C368" s="7"/>
+      <c r="C368" s="7" t="s">
+        <v>1828</v>
+      </c>
       <c r="D368" s="13" t="s">
         <v>1630</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F368" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G368" s="13" t="s">
         <v>1575</v>
@@ -46824,24 +48530,30 @@
       <c r="I368" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J368" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K368" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L368" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M368" s="13"/>
-      <c r="N368" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O368" s="14"/>
-      <c r="P368" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q368" s="14"/>
+      <c r="J368" s="9">
+        <v>1</v>
+      </c>
+      <c r="K368" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L368" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M368" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N368" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O368" s="14" t="s">
+        <v>1829</v>
+      </c>
+      <c r="P368" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="14" t="s">
+        <v>1830</v>
+      </c>
       <c r="R368" s="13" t="s">
         <v>0</v>
       </c>
@@ -46872,8 +48584,8 @@
       <c r="AA368" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB368" s="13" t="s">
-        <v>0</v>
+      <c r="AB368" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AC368" s="13" t="s">
         <v>0</v>
@@ -46907,15 +48619,17 @@
       <c r="B369" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="C369" s="7"/>
+      <c r="C369" s="7" t="s">
+        <v>1831</v>
+      </c>
       <c r="D369" s="13" t="s">
         <v>1631</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F369" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G369" s="13" t="s">
         <v>1575</v>
@@ -46926,24 +48640,30 @@
       <c r="I369" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J369" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K369" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L369" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M369" s="13"/>
-      <c r="N369" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O369" s="14"/>
-      <c r="P369" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q369" s="14"/>
+      <c r="J369" s="9">
+        <v>3</v>
+      </c>
+      <c r="K369" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L369" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M369" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N369" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O369" s="14" t="s">
+        <v>1832</v>
+      </c>
+      <c r="P369" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="14" t="s">
+        <v>1833</v>
+      </c>
       <c r="R369" s="13" t="s">
         <v>0</v>
       </c>
@@ -46971,8 +48691,8 @@
       <c r="Z369" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA369" s="13" t="s">
-        <v>0</v>
+      <c r="AA369" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB369" s="13" t="s">
         <v>0</v>
@@ -47009,15 +48729,17 @@
       <c r="B370" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="C370" s="7"/>
+      <c r="C370" s="7" t="s">
+        <v>1834</v>
+      </c>
       <c r="D370" s="13" t="s">
         <v>1632</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F370" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G370" s="13" t="s">
         <v>1575</v>
@@ -47026,26 +48748,32 @@
         <v>6</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J370" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K370" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L370" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M370" s="13"/>
-      <c r="N370" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O370" s="14"/>
-      <c r="P370" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q370" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J370" s="9">
+        <v>4</v>
+      </c>
+      <c r="K370" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L370" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M370" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N370" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O370" s="14" t="s">
+        <v>1835</v>
+      </c>
+      <c r="P370" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="14" t="s">
+        <v>1836</v>
+      </c>
       <c r="R370" s="13" t="s">
         <v>0</v>
       </c>
@@ -47073,8 +48801,8 @@
       <c r="Z370" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA370" s="13" t="s">
-        <v>0</v>
+      <c r="AA370" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB370" s="13" t="s">
         <v>0</v>
@@ -47111,15 +48839,17 @@
       <c r="B371" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="C371" s="7"/>
+      <c r="C371" s="7" t="s">
+        <v>1837</v>
+      </c>
       <c r="D371" s="13" t="s">
         <v>1633</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F371" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G371" s="13" t="s">
         <v>1575</v>
@@ -47128,22 +48858,26 @@
         <v>6</v>
       </c>
       <c r="I371" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J371" s="9">
         <v>5</v>
       </c>
-      <c r="J371" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K371" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L371" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M371" s="13"/>
-      <c r="N371" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O371" s="14"/>
+      <c r="K371" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L371" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M371" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N371" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O371" s="14" t="s">
+        <v>1839</v>
+      </c>
       <c r="P371" s="13" t="s">
         <v>0</v>
       </c>
@@ -47151,8 +48885,8 @@
       <c r="R371" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S371" s="13" t="s">
-        <v>0</v>
+      <c r="S371" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="T371" s="13" t="s">
         <v>0</v>
@@ -47190,8 +48924,8 @@
       <c r="AE371" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF371" s="13" t="s">
-        <v>0</v>
+      <c r="AF371" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG371" s="13" t="s">
         <v>0</v>
@@ -47213,12 +48947,14 @@
       <c r="B372" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="C372" s="7"/>
+      <c r="C372" s="7" t="s">
+        <v>1840</v>
+      </c>
       <c r="D372" s="13" t="s">
         <v>1634</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F372" s="13" t="s">
         <v>30</v>
@@ -47230,22 +48966,26 @@
         <v>6</v>
       </c>
       <c r="I372" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J372" s="9">
         <v>5</v>
       </c>
-      <c r="J372" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K372" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L372" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M372" s="13"/>
-      <c r="N372" s="14">
+      <c r="K372" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L372" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M372" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N372" s="9">
         <v>1000</v>
       </c>
-      <c r="O372" s="14"/>
+      <c r="O372" s="14" t="s">
+        <v>1841</v>
+      </c>
       <c r="P372" s="13" t="s">
         <v>0</v>
       </c>
@@ -47256,8 +48996,8 @@
       <c r="S372" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T372" s="13" t="s">
-        <v>0</v>
+      <c r="T372" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U372" s="13" t="s">
         <v>0</v>
@@ -47292,8 +49032,8 @@
       <c r="AE372" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF372" s="13" t="s">
-        <v>0</v>
+      <c r="AF372" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG372" s="13" t="s">
         <v>0</v>
@@ -47304,8 +49044,8 @@
       <c r="AI372" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AJ372" s="13" t="s">
-        <v>0</v>
+      <c r="AJ372" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
@@ -47315,12 +49055,14 @@
       <c r="B373" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="C373" s="7"/>
+      <c r="C373" s="7" t="s">
+        <v>1842</v>
+      </c>
       <c r="D373" s="13" t="s">
         <v>1635</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F373" s="13" t="s">
         <v>30</v>
@@ -47332,22 +49074,26 @@
         <v>6</v>
       </c>
       <c r="I373" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J373" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K373" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L373" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M373" s="13"/>
-      <c r="N373" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O373" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J373" s="9">
+        <v>4</v>
+      </c>
+      <c r="K373" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L373" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M373" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N373" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O373" s="14" t="s">
+        <v>1843</v>
+      </c>
       <c r="P373" s="13" t="s">
         <v>0</v>
       </c>
@@ -47358,8 +49104,8 @@
       <c r="S373" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T373" s="13" t="s">
-        <v>0</v>
+      <c r="T373" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U373" s="13" t="s">
         <v>0</v>
@@ -47394,8 +49140,8 @@
       <c r="AE373" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF373" s="13" t="s">
-        <v>0</v>
+      <c r="AF373" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG373" s="13" t="s">
         <v>0</v>
@@ -47417,12 +49163,14 @@
       <c r="B374" s="7" t="s">
         <v>1503</v>
       </c>
-      <c r="C374" s="7"/>
+      <c r="C374" s="7" t="s">
+        <v>1844</v>
+      </c>
       <c r="D374" s="13" t="s">
         <v>1636</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F374" s="13" t="s">
         <v>30</v>
@@ -47436,17 +49184,19 @@
       <c r="I374" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J374" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K374" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L374" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M374" s="13"/>
-      <c r="N374" s="14">
+      <c r="J374" s="9">
+        <v>2</v>
+      </c>
+      <c r="K374" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L374" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M374" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N374" s="9">
         <v>1000</v>
       </c>
       <c r="O374" s="14"/>
@@ -47519,12 +49269,14 @@
       <c r="B375" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="C375" s="7"/>
+      <c r="C375" s="7" t="s">
+        <v>1845</v>
+      </c>
       <c r="D375" s="13" t="s">
         <v>1637</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F375" s="13" t="s">
         <v>30</v>
@@ -47536,28 +49288,32 @@
         <v>6</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J375" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K375" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L375" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M375" s="13"/>
-      <c r="N375" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J375" s="9">
+        <v>1</v>
+      </c>
+      <c r="K375" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L375" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M375" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N375" s="9">
         <v>1000</v>
       </c>
-      <c r="O375" s="14"/>
+      <c r="O375" s="14" t="s">
+        <v>1846</v>
+      </c>
       <c r="P375" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q375" s="14"/>
-      <c r="R375" s="13" t="s">
-        <v>0</v>
+      <c r="R375" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S375" s="13" t="s">
         <v>0</v>
@@ -47621,12 +49377,14 @@
       <c r="B376" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="C376" s="7"/>
+      <c r="C376" s="7" t="s">
+        <v>1847</v>
+      </c>
       <c r="D376" s="13" t="s">
         <v>1638</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F376" s="13" t="s">
         <v>30</v>
@@ -47638,28 +49396,32 @@
         <v>6</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J376" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K376" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L376" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M376" s="13"/>
-      <c r="N376" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O376" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J376" s="9">
+        <v>3</v>
+      </c>
+      <c r="K376" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L376" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M376" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="N376" s="9">
+        <v>0</v>
+      </c>
+      <c r="O376" s="14" t="s">
+        <v>1849</v>
+      </c>
       <c r="P376" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q376" s="14"/>
-      <c r="R376" s="13" t="s">
-        <v>0</v>
+      <c r="R376" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S376" s="13" t="s">
         <v>0</v>
@@ -47700,11 +49462,11 @@
       <c r="AE376" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF376" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG376" s="13" t="s">
-        <v>0</v>
+      <c r="AF376" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG376" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH376" s="13" t="s">
         <v>0</v>
@@ -47723,12 +49485,14 @@
       <c r="B377" s="7" t="s">
         <v>1506</v>
       </c>
-      <c r="C377" s="7"/>
+      <c r="C377" s="7" t="s">
+        <v>1850</v>
+      </c>
       <c r="D377" s="13" t="s">
         <v>1639</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F377" s="13" t="s">
         <v>30</v>
@@ -47742,20 +49506,24 @@
       <c r="I377" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J377" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K377" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L377" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M377" s="13"/>
-      <c r="N377" s="14">
+      <c r="J377" s="9">
+        <v>5</v>
+      </c>
+      <c r="K377" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L377" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M377" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N377" s="9">
         <v>1000</v>
       </c>
-      <c r="O377" s="14"/>
+      <c r="O377" s="14" t="s">
+        <v>1851</v>
+      </c>
       <c r="P377" s="13" t="s">
         <v>0</v>
       </c>
@@ -47769,8 +49537,8 @@
       <c r="T377" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U377" s="13" t="s">
-        <v>0</v>
+      <c r="U377" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V377" s="13" t="s">
         <v>0</v>
@@ -47825,12 +49593,14 @@
       <c r="B378" s="7" t="s">
         <v>1507</v>
       </c>
-      <c r="C378" s="7"/>
+      <c r="C378" s="7" t="s">
+        <v>1852</v>
+      </c>
       <c r="D378" s="13" t="s">
         <v>1640</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F378" s="13" t="s">
         <v>30</v>
@@ -47844,20 +49614,24 @@
       <c r="I378" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J378" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K378" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L378" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M378" s="13"/>
-      <c r="N378" s="14">
+      <c r="J378" s="9">
+        <v>2</v>
+      </c>
+      <c r="K378" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L378" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M378" s="13" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N378" s="9">
         <v>1000</v>
       </c>
-      <c r="O378" s="14"/>
+      <c r="O378" s="14" t="s">
+        <v>1773</v>
+      </c>
       <c r="P378" s="13" t="s">
         <v>0</v>
       </c>
@@ -47907,8 +49681,8 @@
       <c r="AF378" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG378" s="13" t="s">
-        <v>0</v>
+      <c r="AG378" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH378" s="13" t="s">
         <v>0</v>
@@ -47927,12 +49701,14 @@
       <c r="B379" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="C379" s="7"/>
+      <c r="C379" s="7" t="s">
+        <v>1854</v>
+      </c>
       <c r="D379" s="13" t="s">
         <v>1641</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F379" s="13" t="s">
         <v>30</v>
@@ -47944,28 +49720,32 @@
         <v>6</v>
       </c>
       <c r="I379" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J379" s="9">
         <v>5</v>
       </c>
-      <c r="J379" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K379" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L379" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M379" s="13"/>
-      <c r="N379" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O379" s="14"/>
+      <c r="K379" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L379" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M379" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N379" s="9">
+        <v>0</v>
+      </c>
+      <c r="O379" s="14" t="s">
+        <v>1855</v>
+      </c>
       <c r="P379" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q379" s="14"/>
-      <c r="R379" s="13" t="s">
-        <v>0</v>
+      <c r="R379" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S379" s="13" t="s">
         <v>0</v>
@@ -48003,8 +49783,8 @@
       <c r="AD379" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AE379" s="13" t="s">
-        <v>0</v>
+      <c r="AE379" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AF379" s="13" t="s">
         <v>0</v>
@@ -48029,12 +49809,14 @@
       <c r="B380" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="C380" s="7"/>
+      <c r="C380" s="7" t="s">
+        <v>1856</v>
+      </c>
       <c r="D380" s="13" t="s">
         <v>1642</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F380" s="13" t="s">
         <v>30</v>
@@ -48046,22 +49828,26 @@
         <v>6</v>
       </c>
       <c r="I380" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J380" s="9">
         <v>5</v>
       </c>
-      <c r="J380" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K380" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L380" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M380" s="13"/>
-      <c r="N380" s="14">
+      <c r="K380" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L380" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M380" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N380" s="9">
         <v>1000</v>
       </c>
-      <c r="O380" s="14"/>
+      <c r="O380" s="14" t="s">
+        <v>1857</v>
+      </c>
       <c r="P380" s="13" t="s">
         <v>0</v>
       </c>
@@ -48072,8 +49858,8 @@
       <c r="S380" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T380" s="13" t="s">
-        <v>0</v>
+      <c r="T380" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U380" s="13" t="s">
         <v>0</v>
@@ -48102,8 +49888,8 @@
       <c r="AC380" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD380" s="13" t="s">
-        <v>0</v>
+      <c r="AD380" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE380" s="13" t="s">
         <v>0</v>
@@ -48131,12 +49917,14 @@
       <c r="B381" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="C381" s="7"/>
+      <c r="C381" s="7" t="s">
+        <v>1858</v>
+      </c>
       <c r="D381" s="13" t="s">
         <v>1643</v>
       </c>
       <c r="E381" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F381" s="13" t="s">
         <v>30</v>
@@ -48150,20 +49938,24 @@
       <c r="I381" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J381" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K381" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L381" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M381" s="13"/>
-      <c r="N381" s="14">
+      <c r="J381" s="9">
+        <v>4</v>
+      </c>
+      <c r="K381" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L381" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M381" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N381" s="9">
         <v>1000</v>
       </c>
-      <c r="O381" s="14"/>
+      <c r="O381" s="14" t="s">
+        <v>1860</v>
+      </c>
       <c r="P381" s="13" t="s">
         <v>0</v>
       </c>
@@ -48177,8 +49969,8 @@
       <c r="T381" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U381" s="13" t="s">
-        <v>0</v>
+      <c r="U381" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V381" s="13" t="s">
         <v>0</v>
@@ -48222,8 +50014,8 @@
       <c r="AI381" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AJ381" s="13" t="s">
-        <v>0</v>
+      <c r="AJ381" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
@@ -48233,12 +50025,14 @@
       <c r="B382" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="C382" s="7"/>
+      <c r="C382" s="7" t="s">
+        <v>1861</v>
+      </c>
       <c r="D382" s="13" t="s">
         <v>1644</v>
       </c>
       <c r="E382" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F382" s="13" t="s">
         <v>30</v>
@@ -48252,20 +50046,24 @@
       <c r="I382" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J382" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K382" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L382" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M382" s="13"/>
-      <c r="N382" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O382" s="14"/>
+      <c r="J382" s="9">
+        <v>3</v>
+      </c>
+      <c r="K382" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L382" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M382" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N382" s="9">
+        <v>0</v>
+      </c>
+      <c r="O382" s="14" t="s">
+        <v>1862</v>
+      </c>
       <c r="P382" s="13" t="s">
         <v>0</v>
       </c>
@@ -48279,8 +50077,8 @@
       <c r="T382" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U382" s="13" t="s">
-        <v>0</v>
+      <c r="U382" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V382" s="13" t="s">
         <v>0</v>
@@ -48335,12 +50133,14 @@
       <c r="B383" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="C383" s="7"/>
+      <c r="C383" s="7" t="s">
+        <v>660</v>
+      </c>
       <c r="D383" s="13" t="s">
         <v>1645</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F383" s="13" t="s">
         <v>30</v>
@@ -48352,28 +50152,32 @@
         <v>6</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J383" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J383" s="9">
         <v>6</v>
       </c>
-      <c r="K383" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L383" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M383" s="13"/>
-      <c r="N383" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O383" s="14"/>
+      <c r="K383" s="9">
+        <v>7000</v>
+      </c>
+      <c r="L383" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M383" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N383" s="9">
+        <v>0</v>
+      </c>
+      <c r="O383" s="14" t="s">
+        <v>1864</v>
+      </c>
       <c r="P383" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q383" s="14"/>
-      <c r="R383" s="13" t="s">
-        <v>0</v>
+      <c r="R383" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S383" s="13" t="s">
         <v>0</v>
@@ -48414,14 +50218,14 @@
       <c r="AE383" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF383" s="13" t="s">
-        <v>0</v>
+      <c r="AF383" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG383" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AH383" s="13" t="s">
-        <v>0</v>
+      <c r="AH383" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AI383" s="13" t="s">
         <v>0</v>
@@ -48437,12 +50241,14 @@
       <c r="B384" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="C384" s="7"/>
+      <c r="C384" s="7" t="s">
+        <v>1865</v>
+      </c>
       <c r="D384" s="13" t="s">
         <v>1646</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F384" s="13" t="s">
         <v>30</v>
@@ -48454,22 +50260,26 @@
         <v>6</v>
       </c>
       <c r="I384" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J384" s="9">
         <v>5</v>
       </c>
-      <c r="J384" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K384" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L384" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M384" s="13"/>
-      <c r="N384" s="14">
+      <c r="K384" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L384" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M384" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N384" s="9">
         <v>1000</v>
       </c>
-      <c r="O384" s="14"/>
+      <c r="O384" s="14" t="s">
+        <v>1866</v>
+      </c>
       <c r="P384" s="13" t="s">
         <v>0</v>
       </c>
@@ -48480,8 +50290,8 @@
       <c r="S384" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T384" s="13" t="s">
-        <v>0</v>
+      <c r="T384" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U384" s="13" t="s">
         <v>0</v>
@@ -48516,8 +50326,8 @@
       <c r="AE384" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF384" s="13" t="s">
-        <v>0</v>
+      <c r="AF384" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG384" s="13" t="s">
         <v>0</v>
@@ -48539,15 +50349,17 @@
       <c r="B385" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="C385" s="7"/>
+      <c r="C385" s="7" t="s">
+        <v>1867</v>
+      </c>
       <c r="D385" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="E385" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F385" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G385" s="13" t="s">
         <v>1575</v>
@@ -48556,26 +50368,32 @@
         <v>6</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J385" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K385" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L385" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M385" s="13"/>
-      <c r="N385" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O385" s="14"/>
-      <c r="P385" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q385" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J385" s="9">
+        <v>0</v>
+      </c>
+      <c r="K385" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L385" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M385" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N385" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O385" s="14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P385" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="14" t="s">
+        <v>1869</v>
+      </c>
       <c r="R385" s="13" t="s">
         <v>0</v>
       </c>
@@ -48606,8 +50424,8 @@
       <c r="AA385" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB385" s="13" t="s">
-        <v>0</v>
+      <c r="AB385" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AC385" s="13" t="s">
         <v>0</v>
@@ -48641,15 +50459,17 @@
       <c r="B386" s="7" t="s">
         <v>1515</v>
       </c>
-      <c r="C386" s="7"/>
+      <c r="C386" s="7" t="s">
+        <v>1870</v>
+      </c>
       <c r="D386" s="13" t="s">
         <v>1648</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F386" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G386" s="13" t="s">
         <v>1575</v>
@@ -48660,24 +50480,30 @@
       <c r="I386" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J386" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K386" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L386" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M386" s="13"/>
-      <c r="N386" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O386" s="14"/>
-      <c r="P386" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q386" s="14"/>
+      <c r="J386" s="9">
+        <v>1</v>
+      </c>
+      <c r="K386" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L386" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M386" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="N386" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O386" s="14" t="s">
+        <v>1871</v>
+      </c>
+      <c r="P386" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q386" s="14" t="s">
+        <v>1833</v>
+      </c>
       <c r="R386" s="13" t="s">
         <v>0</v>
       </c>
@@ -48705,8 +50531,8 @@
       <c r="Z386" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA386" s="13" t="s">
-        <v>0</v>
+      <c r="AA386" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB386" s="13" t="s">
         <v>0</v>
@@ -48720,8 +50546,8 @@
       <c r="AE386" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF386" s="13" t="s">
-        <v>0</v>
+      <c r="AF386" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG386" s="13" t="s">
         <v>0</v>
@@ -48743,15 +50569,17 @@
       <c r="B387" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C387" s="7"/>
+      <c r="C387" s="7" t="s">
+        <v>1872</v>
+      </c>
       <c r="D387" s="13" t="s">
         <v>1649</v>
       </c>
       <c r="E387" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F387" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G387" s="13" t="s">
         <v>1575</v>
@@ -48760,26 +50588,32 @@
         <v>6</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J387" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K387" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L387" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M387" s="13"/>
-      <c r="N387" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O387" s="14"/>
-      <c r="P387" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q387" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J387" s="9">
+        <v>2</v>
+      </c>
+      <c r="K387" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L387" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M387" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N387" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O387" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="P387" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q387" s="14" t="s">
+        <v>1833</v>
+      </c>
       <c r="R387" s="13" t="s">
         <v>0</v>
       </c>
@@ -48807,8 +50641,8 @@
       <c r="Z387" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA387" s="13" t="s">
-        <v>0</v>
+      <c r="AA387" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB387" s="13" t="s">
         <v>0</v>
@@ -48822,8 +50656,8 @@
       <c r="AE387" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AF387" s="13" t="s">
-        <v>0</v>
+      <c r="AF387" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AG387" s="13" t="s">
         <v>0</v>
@@ -48845,15 +50679,17 @@
       <c r="B388" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="C388" s="7"/>
+      <c r="C388" s="7" t="s">
+        <v>1874</v>
+      </c>
       <c r="D388" s="13" t="s">
         <v>1650</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F388" s="13" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="G388" s="13" t="s">
         <v>1575</v>
@@ -48864,20 +50700,24 @@
       <c r="I388" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J388" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K388" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L388" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M388" s="13"/>
-      <c r="N388" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O388" s="14"/>
+      <c r="J388" s="9">
+        <v>3</v>
+      </c>
+      <c r="K388" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L388" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M388" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N388" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O388" s="14" t="s">
+        <v>1875</v>
+      </c>
       <c r="P388" s="13" t="s">
         <v>0</v>
       </c>
@@ -48885,8 +50725,8 @@
       <c r="R388" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S388" s="13" t="s">
-        <v>0</v>
+      <c r="S388" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="T388" s="13" t="s">
         <v>0</v>
@@ -48947,15 +50787,17 @@
       <c r="B389" s="7" t="s">
         <v>1518</v>
       </c>
-      <c r="C389" s="7"/>
+      <c r="C389" s="7" t="s">
+        <v>1865</v>
+      </c>
       <c r="D389" s="13" t="s">
         <v>1651</v>
       </c>
       <c r="E389" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F389" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G389" s="13" t="s">
         <v>1575</v>
@@ -48964,22 +50806,26 @@
         <v>6</v>
       </c>
       <c r="I389" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J389" s="9">
         <v>5</v>
       </c>
-      <c r="J389" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K389" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L389" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M389" s="13"/>
-      <c r="N389" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O389" s="14"/>
+      <c r="K389" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L389" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M389" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N389" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O389" s="14" t="s">
+        <v>1877</v>
+      </c>
       <c r="P389" s="13" t="s">
         <v>0</v>
       </c>
@@ -48999,8 +50845,8 @@
       <c r="V389" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="W389" s="13" t="s">
-        <v>0</v>
+      <c r="W389" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="X389" s="13" t="s">
         <v>0</v>
@@ -49017,8 +50863,8 @@
       <c r="AB389" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AC389" s="13" t="s">
-        <v>0</v>
+      <c r="AC389" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AD389" s="13" t="s">
         <v>0</v>
@@ -49049,15 +50895,17 @@
       <c r="B390" s="7" t="s">
         <v>1519</v>
       </c>
-      <c r="C390" s="7"/>
+      <c r="C390" s="7" t="s">
+        <v>1878</v>
+      </c>
       <c r="D390" s="13" t="s">
         <v>1652</v>
       </c>
       <c r="E390" s="13" t="s">
-        <v>292</v>
+        <v>1980</v>
       </c>
       <c r="F390" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G390" s="13" t="s">
         <v>1575</v>
@@ -49066,22 +50914,26 @@
         <v>6</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J390" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K390" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L390" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M390" s="13"/>
-      <c r="N390" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O390" s="14"/>
+        <v>1743</v>
+      </c>
+      <c r="J390" s="9">
+        <v>4</v>
+      </c>
+      <c r="K390" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L390" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M390" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N390" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O390" s="14" t="s">
+        <v>1880</v>
+      </c>
       <c r="P390" s="13" t="s">
         <v>0</v>
       </c>
@@ -49092,8 +50944,8 @@
       <c r="S390" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T390" s="13" t="s">
-        <v>0</v>
+      <c r="T390" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U390" s="13" t="s">
         <v>0</v>
@@ -49122,11 +50974,11 @@
       <c r="AC390" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD390" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE390" s="13" t="s">
-        <v>0</v>
+      <c r="AD390" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE390" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AF390" s="13" t="s">
         <v>0</v>
@@ -49151,12 +51003,14 @@
       <c r="B391" s="7" t="s">
         <v>1520</v>
       </c>
-      <c r="C391" s="7"/>
+      <c r="C391" s="7" t="s">
+        <v>1881</v>
+      </c>
       <c r="D391" s="13" t="s">
         <v>1653</v>
       </c>
       <c r="E391" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F391" s="13" t="s">
         <v>30</v>
@@ -49168,28 +51022,32 @@
         <v>6</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J391" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K391" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L391" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M391" s="13"/>
-      <c r="N391" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O391" s="14"/>
+        <v>1757</v>
+      </c>
+      <c r="J391" s="9">
+        <v>8</v>
+      </c>
+      <c r="K391" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L391" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M391" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N391" s="9">
+        <v>0</v>
+      </c>
+      <c r="O391" s="14" t="s">
+        <v>1883</v>
+      </c>
       <c r="P391" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q391" s="14"/>
-      <c r="R391" s="13" t="s">
-        <v>0</v>
+      <c r="R391" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S391" s="13" t="s">
         <v>0</v>
@@ -49203,8 +51061,8 @@
       <c r="V391" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="W391" s="13" t="s">
-        <v>0</v>
+      <c r="W391" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="X391" s="13" t="s">
         <v>0</v>
@@ -49224,8 +51082,8 @@
       <c r="AC391" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD391" s="13" t="s">
-        <v>0</v>
+      <c r="AD391" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE391" s="13" t="s">
         <v>0</v>
@@ -49253,12 +51111,14 @@
       <c r="B392" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="C392" s="7"/>
+      <c r="C392" s="7" t="s">
+        <v>1884</v>
+      </c>
       <c r="D392" s="13" t="s">
         <v>1654</v>
       </c>
       <c r="E392" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F392" s="13" t="s">
         <v>30</v>
@@ -49270,22 +51130,26 @@
         <v>6</v>
       </c>
       <c r="I392" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J392" s="9">
         <v>5</v>
       </c>
-      <c r="J392" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K392" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L392" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M392" s="13"/>
-      <c r="N392" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O392" s="14"/>
+      <c r="K392" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L392" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M392" s="13" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N392" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O392" s="14" t="s">
+        <v>1886</v>
+      </c>
       <c r="P392" s="13" t="s">
         <v>0</v>
       </c>
@@ -49326,8 +51190,8 @@
       <c r="AC392" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD392" s="13" t="s">
-        <v>0</v>
+      <c r="AD392" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE392" s="13" t="s">
         <v>0</v>
@@ -49355,12 +51219,14 @@
       <c r="B393" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="C393" s="7"/>
+      <c r="C393" s="7" t="s">
+        <v>1840</v>
+      </c>
       <c r="D393" s="13" t="s">
         <v>1655</v>
       </c>
       <c r="E393" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F393" s="13" t="s">
         <v>30</v>
@@ -49372,28 +51238,32 @@
         <v>6</v>
       </c>
       <c r="I393" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J393" s="9">
         <v>5</v>
       </c>
-      <c r="J393" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K393" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L393" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M393" s="13"/>
-      <c r="N393" s="14">
+      <c r="K393" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L393" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M393" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N393" s="9">
         <v>1000</v>
       </c>
-      <c r="O393" s="14"/>
+      <c r="O393" s="14" t="s">
+        <v>1887</v>
+      </c>
       <c r="P393" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q393" s="14"/>
-      <c r="R393" s="13" t="s">
-        <v>0</v>
+      <c r="R393" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S393" s="13" t="s">
         <v>0</v>
@@ -49457,12 +51327,14 @@
       <c r="B394" s="7" t="s">
         <v>1523</v>
       </c>
-      <c r="C394" s="7"/>
+      <c r="C394" s="7" t="s">
+        <v>1842</v>
+      </c>
       <c r="D394" s="13" t="s">
         <v>1656</v>
       </c>
       <c r="E394" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F394" s="13" t="s">
         <v>30</v>
@@ -49474,28 +51346,32 @@
         <v>6</v>
       </c>
       <c r="I394" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J394" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K394" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L394" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M394" s="13"/>
-      <c r="N394" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O394" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J394" s="9">
+        <v>4</v>
+      </c>
+      <c r="K394" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L394" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M394" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N394" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O394" s="14" t="s">
+        <v>1888</v>
+      </c>
       <c r="P394" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q394" s="14"/>
-      <c r="R394" s="13" t="s">
-        <v>0</v>
+      <c r="R394" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S394" s="13" t="s">
         <v>0</v>
@@ -49559,12 +51435,14 @@
       <c r="B395" s="7" t="s">
         <v>1524</v>
       </c>
-      <c r="C395" s="7"/>
+      <c r="C395" s="7" t="s">
+        <v>1889</v>
+      </c>
       <c r="D395" s="13" t="s">
         <v>1657</v>
       </c>
       <c r="E395" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F395" s="13" t="s">
         <v>30</v>
@@ -49578,17 +51456,19 @@
       <c r="I395" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J395" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K395" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L395" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M395" s="13"/>
-      <c r="N395" s="14">
+      <c r="J395" s="9">
+        <v>4</v>
+      </c>
+      <c r="K395" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L395" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M395" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N395" s="9">
         <v>1000</v>
       </c>
       <c r="O395" s="14"/>
@@ -49661,12 +51541,14 @@
       <c r="B396" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="C396" s="7"/>
+      <c r="C396" s="7" t="s">
+        <v>1890</v>
+      </c>
       <c r="D396" s="13" t="s">
         <v>1658</v>
       </c>
       <c r="E396" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F396" s="13" t="s">
         <v>30</v>
@@ -49680,26 +51562,30 @@
       <c r="I396" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J396" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K396" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L396" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M396" s="13"/>
-      <c r="N396" s="14">
+      <c r="J396" s="9">
+        <v>1</v>
+      </c>
+      <c r="K396" s="9">
+        <v>0</v>
+      </c>
+      <c r="L396" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M396" s="13" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N396" s="9">
         <v>1000</v>
       </c>
-      <c r="O396" s="14"/>
+      <c r="O396" s="14" t="s">
+        <v>1892</v>
+      </c>
       <c r="P396" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q396" s="14"/>
-      <c r="R396" s="13" t="s">
-        <v>0</v>
+      <c r="R396" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S396" s="13" t="s">
         <v>0</v>
@@ -49763,12 +51649,14 @@
       <c r="B397" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="C397" s="7"/>
+      <c r="C397" s="7" t="s">
+        <v>1893</v>
+      </c>
       <c r="D397" s="13" t="s">
         <v>1659</v>
       </c>
       <c r="E397" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F397" s="13" t="s">
         <v>30</v>
@@ -49782,17 +51670,19 @@
       <c r="I397" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J397" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K397" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L397" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M397" s="13"/>
-      <c r="N397" s="14">
+      <c r="J397" s="9">
+        <v>2</v>
+      </c>
+      <c r="K397" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L397" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M397" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N397" s="9">
         <v>1000</v>
       </c>
       <c r="O397" s="14"/>
@@ -49865,12 +51755,14 @@
       <c r="B398" s="7" t="s">
         <v>1527</v>
       </c>
-      <c r="C398" s="7"/>
+      <c r="C398" s="7" t="s">
+        <v>1894</v>
+      </c>
       <c r="D398" s="13" t="s">
         <v>1660</v>
       </c>
       <c r="E398" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F398" s="13" t="s">
         <v>30</v>
@@ -49884,17 +51776,19 @@
       <c r="I398" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J398" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K398" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L398" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M398" s="13"/>
-      <c r="N398" s="14">
+      <c r="J398" s="9">
+        <v>5</v>
+      </c>
+      <c r="K398" s="9">
+        <v>7000</v>
+      </c>
+      <c r="L398" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M398" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N398" s="9">
         <v>1000</v>
       </c>
       <c r="O398" s="14"/>
@@ -49967,12 +51861,14 @@
       <c r="B399" s="7" t="s">
         <v>1528</v>
       </c>
-      <c r="C399" s="7"/>
+      <c r="C399" s="7" t="s">
+        <v>1895</v>
+      </c>
       <c r="D399" s="13" t="s">
         <v>1661</v>
       </c>
       <c r="E399" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F399" s="13" t="s">
         <v>30</v>
@@ -49984,28 +51880,32 @@
         <v>6</v>
       </c>
       <c r="I399" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J399" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K399" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L399" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M399" s="13"/>
-      <c r="N399" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J399" s="9">
+        <v>1</v>
+      </c>
+      <c r="K399" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L399" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M399" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N399" s="9">
         <v>1000</v>
       </c>
-      <c r="O399" s="14"/>
+      <c r="O399" s="14" t="s">
+        <v>1896</v>
+      </c>
       <c r="P399" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q399" s="14"/>
-      <c r="R399" s="13" t="s">
-        <v>0</v>
+      <c r="R399" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S399" s="13" t="s">
         <v>0</v>
@@ -50069,12 +51969,14 @@
       <c r="B400" s="7" t="s">
         <v>1529</v>
       </c>
-      <c r="C400" s="7"/>
+      <c r="C400" s="7" t="s">
+        <v>1897</v>
+      </c>
       <c r="D400" s="13" t="s">
         <v>1662</v>
       </c>
       <c r="E400" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F400" s="13" t="s">
         <v>30</v>
@@ -50088,17 +51990,19 @@
       <c r="I400" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J400" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K400" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L400" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M400" s="13"/>
-      <c r="N400" s="14">
+      <c r="J400" s="9">
+        <v>3</v>
+      </c>
+      <c r="K400" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L400" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M400" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N400" s="9">
         <v>1000</v>
       </c>
       <c r="O400" s="14"/>
@@ -50171,12 +52075,14 @@
       <c r="B401" s="7" t="s">
         <v>1530</v>
       </c>
-      <c r="C401" s="7"/>
+      <c r="C401" s="7" t="s">
+        <v>1898</v>
+      </c>
       <c r="D401" s="13" t="s">
         <v>1663</v>
       </c>
       <c r="E401" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F401" s="13" t="s">
         <v>30</v>
@@ -50188,22 +52094,26 @@
         <v>6</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J401" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K401" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L401" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M401" s="13"/>
-      <c r="N401" s="14">
+        <v>1761</v>
+      </c>
+      <c r="J401" s="9">
+        <v>3</v>
+      </c>
+      <c r="K401" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L401" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M401" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N401" s="9">
         <v>1000</v>
       </c>
-      <c r="O401" s="14"/>
+      <c r="O401" s="14" t="s">
+        <v>1899</v>
+      </c>
       <c r="P401" s="13" t="s">
         <v>0</v>
       </c>
@@ -50253,8 +52163,8 @@
       <c r="AF401" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG401" s="13" t="s">
-        <v>0</v>
+      <c r="AG401" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH401" s="13" t="s">
         <v>0</v>
@@ -50273,12 +52183,14 @@
       <c r="B402" s="7" t="s">
         <v>1531</v>
       </c>
-      <c r="C402" s="7"/>
+      <c r="C402" s="7" t="s">
+        <v>1900</v>
+      </c>
       <c r="D402" s="13" t="s">
         <v>1664</v>
       </c>
       <c r="E402" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F402" s="13" t="s">
         <v>30</v>
@@ -50290,28 +52202,32 @@
         <v>6</v>
       </c>
       <c r="I402" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J402" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K402" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L402" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M402" s="13"/>
-      <c r="N402" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J402" s="9">
+        <v>2</v>
+      </c>
+      <c r="K402" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L402" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M402" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N402" s="9">
         <v>1000</v>
       </c>
-      <c r="O402" s="14"/>
+      <c r="O402" s="14" t="s">
+        <v>1901</v>
+      </c>
       <c r="P402" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q402" s="14"/>
-      <c r="R402" s="13" t="s">
-        <v>0</v>
+      <c r="R402" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S402" s="13" t="s">
         <v>0</v>
@@ -50375,12 +52291,14 @@
       <c r="B403" s="7" t="s">
         <v>1532</v>
       </c>
-      <c r="C403" s="7"/>
+      <c r="C403" s="7" t="s">
+        <v>1902</v>
+      </c>
       <c r="D403" s="13" t="s">
         <v>1665</v>
       </c>
       <c r="E403" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F403" s="13" t="s">
         <v>30</v>
@@ -50392,22 +52310,26 @@
         <v>6</v>
       </c>
       <c r="I403" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J403" s="9">
         <v>5</v>
       </c>
-      <c r="J403" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K403" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L403" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M403" s="13"/>
-      <c r="N403" s="14">
+      <c r="K403" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L403" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M403" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N403" s="9">
         <v>1000</v>
       </c>
-      <c r="O403" s="14"/>
+      <c r="O403" s="14" t="s">
+        <v>1903</v>
+      </c>
       <c r="P403" s="13" t="s">
         <v>0</v>
       </c>
@@ -50421,8 +52343,8 @@
       <c r="T403" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U403" s="13" t="s">
-        <v>0</v>
+      <c r="U403" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V403" s="13" t="s">
         <v>0</v>
@@ -50448,8 +52370,8 @@
       <c r="AC403" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD403" s="13" t="s">
-        <v>0</v>
+      <c r="AD403" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE403" s="13" t="s">
         <v>0</v>
@@ -50457,8 +52379,8 @@
       <c r="AF403" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG403" s="13" t="s">
-        <v>0</v>
+      <c r="AG403" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH403" s="13" t="s">
         <v>0</v>
@@ -50477,12 +52399,14 @@
       <c r="B404" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="C404" s="7"/>
+      <c r="C404" s="7" t="s">
+        <v>1422</v>
+      </c>
       <c r="D404" s="13" t="s">
         <v>1666</v>
       </c>
       <c r="E404" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F404" s="13" t="s">
         <v>30</v>
@@ -50496,26 +52420,30 @@
       <c r="I404" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J404" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K404" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L404" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M404" s="13"/>
-      <c r="N404" s="14">
+      <c r="J404" s="9">
+        <v>1</v>
+      </c>
+      <c r="K404" s="9">
+        <v>0</v>
+      </c>
+      <c r="L404" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M404" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N404" s="9">
         <v>1000</v>
       </c>
-      <c r="O404" s="14"/>
+      <c r="O404" s="14" t="s">
+        <v>1904</v>
+      </c>
       <c r="P404" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q404" s="14"/>
-      <c r="R404" s="13" t="s">
-        <v>0</v>
+      <c r="R404" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S404" s="13" t="s">
         <v>0</v>
@@ -50579,12 +52507,14 @@
       <c r="B405" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="C405" s="7"/>
+      <c r="C405" s="7" t="s">
+        <v>1865</v>
+      </c>
       <c r="D405" s="13" t="s">
         <v>1667</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F405" s="13" t="s">
         <v>30</v>
@@ -50596,28 +52526,32 @@
         <v>6</v>
       </c>
       <c r="I405" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J405" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J405" s="9">
         <v>6</v>
       </c>
-      <c r="K405" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L405" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M405" s="13"/>
-      <c r="N405" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O405" s="14"/>
+      <c r="K405" s="9">
+        <v>7000</v>
+      </c>
+      <c r="L405" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M405" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N405" s="9">
+        <v>0</v>
+      </c>
+      <c r="O405" s="14" t="s">
+        <v>1905</v>
+      </c>
       <c r="P405" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q405" s="14"/>
-      <c r="R405" s="13" t="s">
-        <v>0</v>
+      <c r="R405" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S405" s="13" t="s">
         <v>0</v>
@@ -50664,8 +52598,8 @@
       <c r="AG405" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AH405" s="13" t="s">
-        <v>0</v>
+      <c r="AH405" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AI405" s="13" t="s">
         <v>0</v>
@@ -50681,12 +52615,14 @@
       <c r="B406" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="C406" s="7"/>
+      <c r="C406" s="7" t="s">
+        <v>1906</v>
+      </c>
       <c r="D406" s="13" t="s">
         <v>1668</v>
       </c>
       <c r="E406" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F406" s="13" t="s">
         <v>30</v>
@@ -50698,28 +52634,32 @@
         <v>6</v>
       </c>
       <c r="I406" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J406" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K406" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L406" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M406" s="13"/>
-      <c r="N406" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O406" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J406" s="9">
+        <v>2</v>
+      </c>
+      <c r="K406" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L406" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M406" s="13" t="s">
+        <v>1907</v>
+      </c>
+      <c r="N406" s="9">
+        <v>0</v>
+      </c>
+      <c r="O406" s="14" t="s">
+        <v>1908</v>
+      </c>
       <c r="P406" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q406" s="14"/>
-      <c r="R406" s="13" t="s">
-        <v>0</v>
+      <c r="R406" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S406" s="13" t="s">
         <v>0</v>
@@ -50783,15 +52723,17 @@
       <c r="B407" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="C407" s="7"/>
+      <c r="C407" s="7" t="s">
+        <v>1909</v>
+      </c>
       <c r="D407" s="13" t="s">
         <v>1669</v>
       </c>
       <c r="E407" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F407" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G407" s="13" t="s">
         <v>1575</v>
@@ -50800,26 +52742,32 @@
         <v>6</v>
       </c>
       <c r="I407" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J407" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K407" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L407" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M407" s="13"/>
-      <c r="N407" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O407" s="14"/>
-      <c r="P407" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q407" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J407" s="9">
+        <v>4</v>
+      </c>
+      <c r="K407" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L407" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M407" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N407" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O407" s="14" t="s">
+        <v>1910</v>
+      </c>
+      <c r="P407" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q407" s="14" t="s">
+        <v>1911</v>
+      </c>
       <c r="R407" s="13" t="s">
         <v>0</v>
       </c>
@@ -50847,8 +52795,8 @@
       <c r="Z407" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA407" s="13" t="s">
-        <v>0</v>
+      <c r="AA407" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB407" s="13" t="s">
         <v>0</v>
@@ -50885,15 +52833,17 @@
       <c r="B408" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="C408" s="7"/>
+      <c r="C408" s="7" t="s">
+        <v>1912</v>
+      </c>
       <c r="D408" s="13" t="s">
         <v>1670</v>
       </c>
       <c r="E408" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F408" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G408" s="13" t="s">
         <v>1575</v>
@@ -50904,24 +52854,30 @@
       <c r="I408" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J408" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K408" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L408" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M408" s="13"/>
-      <c r="N408" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O408" s="14"/>
-      <c r="P408" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q408" s="14"/>
+      <c r="J408" s="9">
+        <v>1</v>
+      </c>
+      <c r="K408" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L408" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M408" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N408" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O408" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="P408" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q408" s="14" t="s">
+        <v>1914</v>
+      </c>
       <c r="R408" s="13" t="s">
         <v>0</v>
       </c>
@@ -50949,8 +52905,8 @@
       <c r="Z408" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA408" s="13" t="s">
-        <v>0</v>
+      <c r="AA408" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB408" s="13" t="s">
         <v>0</v>
@@ -50987,15 +52943,17 @@
       <c r="B409" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="C409" s="7"/>
+      <c r="C409" s="7" t="s">
+        <v>1915</v>
+      </c>
       <c r="D409" s="13" t="s">
         <v>1671</v>
       </c>
       <c r="E409" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F409" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G409" s="13" t="s">
         <v>1575</v>
@@ -51004,26 +52962,32 @@
         <v>6</v>
       </c>
       <c r="I409" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J409" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K409" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L409" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M409" s="13"/>
-      <c r="N409" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O409" s="14"/>
-      <c r="P409" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q409" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J409" s="9">
+        <v>2</v>
+      </c>
+      <c r="K409" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L409" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M409" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N409" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O409" s="14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="P409" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q409" s="14" t="s">
+        <v>1917</v>
+      </c>
       <c r="R409" s="13" t="s">
         <v>0</v>
       </c>
@@ -51051,8 +53015,8 @@
       <c r="Z409" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA409" s="13" t="s">
-        <v>0</v>
+      <c r="AA409" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB409" s="13" t="s">
         <v>0</v>
@@ -51089,15 +53053,17 @@
       <c r="B410" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="C410" s="7"/>
+      <c r="C410" s="7" t="s">
+        <v>1918</v>
+      </c>
       <c r="D410" s="13" t="s">
         <v>1672</v>
       </c>
       <c r="E410" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F410" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G410" s="13" t="s">
         <v>1575</v>
@@ -51106,26 +53072,32 @@
         <v>6</v>
       </c>
       <c r="I410" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J410" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K410" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L410" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M410" s="13"/>
-      <c r="N410" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O410" s="14"/>
-      <c r="P410" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q410" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J410" s="9">
+        <v>0</v>
+      </c>
+      <c r="K410" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L410" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M410" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N410" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O410" s="14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P410" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q410" s="14" t="s">
+        <v>1919</v>
+      </c>
       <c r="R410" s="13" t="s">
         <v>0</v>
       </c>
@@ -51156,8 +53128,8 @@
       <c r="AA410" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB410" s="13" t="s">
-        <v>0</v>
+      <c r="AB410" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AC410" s="13" t="s">
         <v>0</v>
@@ -51191,15 +53163,17 @@
       <c r="B411" s="7" t="s">
         <v>1540</v>
       </c>
-      <c r="C411" s="7"/>
+      <c r="C411" s="7" t="s">
+        <v>1920</v>
+      </c>
       <c r="D411" s="13" t="s">
         <v>1673</v>
       </c>
       <c r="E411" s="13" t="s">
-        <v>292</v>
+        <v>1387</v>
       </c>
       <c r="F411" s="13" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="G411" s="13" t="s">
         <v>1575</v>
@@ -51210,29 +53184,35 @@
       <c r="I411" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J411" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K411" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L411" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M411" s="13"/>
-      <c r="N411" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O411" s="14"/>
-      <c r="P411" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q411" s="14"/>
+      <c r="J411" s="9">
+        <v>2</v>
+      </c>
+      <c r="K411" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L411" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M411" s="13" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N411" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O411" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="P411" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q411" s="14" t="s">
+        <v>1922</v>
+      </c>
       <c r="R411" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S411" s="13" t="s">
-        <v>0</v>
+      <c r="S411" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="T411" s="13" t="s">
         <v>0</v>
@@ -51293,15 +53273,17 @@
       <c r="B412" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="C412" s="7"/>
+      <c r="C412" s="7" t="s">
+        <v>1924</v>
+      </c>
       <c r="D412" s="13" t="s">
         <v>1674</v>
       </c>
       <c r="E412" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F412" s="13" t="s">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="G412" s="13" t="s">
         <v>1575</v>
@@ -51310,22 +53292,26 @@
         <v>6</v>
       </c>
       <c r="I412" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J412" s="9">
         <v>5</v>
       </c>
-      <c r="J412" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K412" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L412" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M412" s="13"/>
-      <c r="N412" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O412" s="14"/>
+      <c r="K412" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L412" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M412" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N412" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O412" s="14" t="s">
+        <v>1926</v>
+      </c>
       <c r="P412" s="13" t="s">
         <v>0</v>
       </c>
@@ -51336,8 +53322,8 @@
       <c r="S412" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T412" s="13" t="s">
-        <v>0</v>
+      <c r="T412" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U412" s="13" t="s">
         <v>0</v>
@@ -51366,8 +53352,8 @@
       <c r="AC412" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD412" s="13" t="s">
-        <v>0</v>
+      <c r="AD412" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE412" s="13" t="s">
         <v>0</v>
@@ -51395,12 +53381,14 @@
       <c r="B413" s="7" t="s">
         <v>1542</v>
       </c>
-      <c r="C413" s="7"/>
+      <c r="C413" s="7" t="s">
+        <v>1927</v>
+      </c>
       <c r="D413" s="13" t="s">
         <v>1675</v>
       </c>
       <c r="E413" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F413" s="13" t="s">
         <v>30</v>
@@ -51414,24 +53402,28 @@
       <c r="I413" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J413" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K413" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L413" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M413" s="13"/>
-      <c r="N413" s="14">
-        <v>1000</v>
+      <c r="J413" s="9">
+        <v>3</v>
+      </c>
+      <c r="K413" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L413" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M413" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N413" s="9">
+        <v>0</v>
       </c>
       <c r="O413" s="14"/>
-      <c r="P413" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q413" s="14"/>
+      <c r="P413" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q413" s="14" t="s">
+        <v>1929</v>
+      </c>
       <c r="R413" s="13" t="s">
         <v>0</v>
       </c>
@@ -51497,12 +53489,14 @@
       <c r="B414" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="C414" s="7"/>
+      <c r="C414" s="7" t="s">
+        <v>1930</v>
+      </c>
       <c r="D414" s="13" t="s">
         <v>1676</v>
       </c>
       <c r="E414" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F414" s="13" t="s">
         <v>30</v>
@@ -51516,17 +53510,19 @@
       <c r="I414" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J414" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K414" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L414" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M414" s="13"/>
-      <c r="N414" s="14">
+      <c r="J414" s="9">
+        <v>1</v>
+      </c>
+      <c r="K414" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L414" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M414" s="13" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N414" s="9">
         <v>1000</v>
       </c>
       <c r="O414" s="14"/>
@@ -51599,12 +53595,14 @@
       <c r="B415" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="C415" s="7"/>
+      <c r="C415" s="7" t="s">
+        <v>1932</v>
+      </c>
       <c r="D415" s="13" t="s">
         <v>1677</v>
       </c>
       <c r="E415" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F415" s="13" t="s">
         <v>30</v>
@@ -51616,22 +53614,26 @@
         <v>6</v>
       </c>
       <c r="I415" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J415" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K415" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L415" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M415" s="13"/>
-      <c r="N415" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O415" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J415" s="9">
+        <v>2</v>
+      </c>
+      <c r="K415" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L415" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M415" s="13" t="s">
+        <v>1933</v>
+      </c>
+      <c r="N415" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O415" s="14" t="s">
+        <v>1934</v>
+      </c>
       <c r="P415" s="13" t="s">
         <v>0</v>
       </c>
@@ -51642,8 +53644,8 @@
       <c r="S415" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T415" s="13" t="s">
-        <v>0</v>
+      <c r="T415" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U415" s="13" t="s">
         <v>0</v>
@@ -51672,8 +53674,8 @@
       <c r="AC415" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD415" s="13" t="s">
-        <v>0</v>
+      <c r="AD415" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE415" s="13" t="s">
         <v>0</v>
@@ -51701,12 +53703,14 @@
       <c r="B416" s="7" t="s">
         <v>1545</v>
       </c>
-      <c r="C416" s="7"/>
+      <c r="C416" s="7" t="s">
+        <v>1935</v>
+      </c>
       <c r="D416" s="13" t="s">
         <v>1678</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F416" s="13" t="s">
         <v>30</v>
@@ -51720,17 +53724,19 @@
       <c r="I416" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J416" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K416" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L416" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M416" s="13"/>
-      <c r="N416" s="14">
+      <c r="J416" s="9">
+        <v>2</v>
+      </c>
+      <c r="K416" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L416" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M416" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N416" s="9">
         <v>1000</v>
       </c>
       <c r="O416" s="14"/>
@@ -51803,12 +53809,14 @@
       <c r="B417" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="C417" s="7"/>
+      <c r="C417" s="7" t="s">
+        <v>1936</v>
+      </c>
       <c r="D417" s="13" t="s">
         <v>1679</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F417" s="13" t="s">
         <v>30</v>
@@ -51820,28 +53828,32 @@
         <v>6</v>
       </c>
       <c r="I417" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J417" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K417" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L417" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M417" s="13"/>
-      <c r="N417" s="14">
+        <v>1937</v>
+      </c>
+      <c r="J417" s="9">
+        <v>3</v>
+      </c>
+      <c r="K417" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L417" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M417" s="13" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N417" s="9">
         <v>1000</v>
       </c>
-      <c r="O417" s="14"/>
+      <c r="O417" s="14" t="s">
+        <v>1938</v>
+      </c>
       <c r="P417" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q417" s="14"/>
-      <c r="R417" s="13" t="s">
-        <v>0</v>
+      <c r="R417" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S417" s="13" t="s">
         <v>0</v>
@@ -51885,8 +53897,8 @@
       <c r="AF417" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG417" s="13" t="s">
-        <v>0</v>
+      <c r="AG417" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH417" s="13" t="s">
         <v>0</v>
@@ -51905,12 +53917,14 @@
       <c r="B418" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="C418" s="7"/>
+      <c r="C418" s="7" t="s">
+        <v>1939</v>
+      </c>
       <c r="D418" s="13" t="s">
         <v>1680</v>
       </c>
       <c r="E418" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F418" s="13" t="s">
         <v>30</v>
@@ -51922,24 +53936,28 @@
         <v>6</v>
       </c>
       <c r="I418" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J418" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K418" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L418" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M418" s="13"/>
-      <c r="N418" s="14">
+        <v>1937</v>
+      </c>
+      <c r="J418" s="9">
+        <v>3</v>
+      </c>
+      <c r="K418" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L418" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M418" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N418" s="9">
         <v>1000</v>
       </c>
-      <c r="O418" s="14"/>
-      <c r="P418" s="13" t="s">
-        <v>0</v>
+      <c r="O418" s="14" t="s">
+        <v>1940</v>
+      </c>
+      <c r="P418" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Q418" s="14"/>
       <c r="R418" s="13" t="s">
@@ -51948,8 +53966,8 @@
       <c r="S418" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T418" s="13" t="s">
-        <v>0</v>
+      <c r="T418" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U418" s="13" t="s">
         <v>0</v>
@@ -51978,8 +53996,8 @@
       <c r="AC418" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD418" s="13" t="s">
-        <v>0</v>
+      <c r="AD418" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE418" s="13" t="s">
         <v>0</v>
@@ -52007,12 +54025,14 @@
       <c r="B419" s="7" t="s">
         <v>1548</v>
       </c>
-      <c r="C419" s="7"/>
+      <c r="C419" s="7" t="s">
+        <v>1941</v>
+      </c>
       <c r="D419" s="13" t="s">
         <v>1681</v>
       </c>
       <c r="E419" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F419" s="13" t="s">
         <v>30</v>
@@ -52026,17 +54046,19 @@
       <c r="I419" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J419" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K419" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L419" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M419" s="13"/>
-      <c r="N419" s="14">
+      <c r="J419" s="9">
+        <v>4</v>
+      </c>
+      <c r="K419" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L419" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M419" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N419" s="9">
         <v>1000</v>
       </c>
       <c r="O419" s="14"/>
@@ -52109,12 +54131,14 @@
       <c r="B420" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="C420" s="7"/>
+      <c r="C420" s="7" t="s">
+        <v>1942</v>
+      </c>
       <c r="D420" s="13" t="s">
         <v>1682</v>
       </c>
       <c r="E420" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F420" s="13" t="s">
         <v>30</v>
@@ -52128,20 +54152,24 @@
       <c r="I420" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J420" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K420" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L420" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M420" s="13"/>
-      <c r="N420" s="14">
+      <c r="J420" s="9">
+        <v>2</v>
+      </c>
+      <c r="K420" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L420" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M420" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N420" s="9">
         <v>1000</v>
       </c>
-      <c r="O420" s="14"/>
+      <c r="O420" s="14" t="s">
+        <v>1773</v>
+      </c>
       <c r="P420" s="13" t="s">
         <v>0</v>
       </c>
@@ -52191,8 +54219,8 @@
       <c r="AF420" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AG420" s="13" t="s">
-        <v>0</v>
+      <c r="AG420" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AH420" s="13" t="s">
         <v>0</v>
@@ -52211,12 +54239,14 @@
       <c r="B421" s="7" t="s">
         <v>1550</v>
       </c>
-      <c r="C421" s="7"/>
+      <c r="C421" s="7" t="s">
+        <v>1943</v>
+      </c>
       <c r="D421" s="13" t="s">
         <v>1683</v>
       </c>
       <c r="E421" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F421" s="13" t="s">
         <v>30</v>
@@ -52228,26 +54258,32 @@
         <v>6</v>
       </c>
       <c r="I421" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J421" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K421" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L421" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M421" s="13"/>
-      <c r="N421" s="14">
+        <v>1757</v>
+      </c>
+      <c r="J421" s="9">
+        <v>4</v>
+      </c>
+      <c r="K421" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L421" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M421" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N421" s="9">
         <v>1000</v>
       </c>
-      <c r="O421" s="14"/>
-      <c r="P421" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q421" s="14"/>
+      <c r="O421" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="P421" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q421" s="14" t="s">
+        <v>1945</v>
+      </c>
       <c r="R421" s="13" t="s">
         <v>0</v>
       </c>
@@ -52284,8 +54320,8 @@
       <c r="AC421" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD421" s="13" t="s">
-        <v>0</v>
+      <c r="AD421" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AE421" s="13" t="s">
         <v>0</v>
@@ -52299,8 +54335,8 @@
       <c r="AH421" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI421" s="13" t="s">
-        <v>0</v>
+      <c r="AI421" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AJ421" s="13" t="s">
         <v>0</v>
@@ -52313,12 +54349,14 @@
       <c r="B422" s="7" t="s">
         <v>1551</v>
       </c>
-      <c r="C422" s="7"/>
+      <c r="C422" s="7" t="s">
+        <v>1946</v>
+      </c>
       <c r="D422" s="13" t="s">
         <v>1684</v>
       </c>
       <c r="E422" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F422" s="13" t="s">
         <v>30</v>
@@ -52332,26 +54370,30 @@
       <c r="I422" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J422" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K422" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L422" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M422" s="13"/>
-      <c r="N422" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O422" s="14"/>
+      <c r="J422" s="9">
+        <v>2</v>
+      </c>
+      <c r="K422" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L422" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M422" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N422" s="9">
+        <v>0</v>
+      </c>
+      <c r="O422" s="14" t="s">
+        <v>1947</v>
+      </c>
       <c r="P422" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q422" s="14"/>
-      <c r="R422" s="13" t="s">
-        <v>0</v>
+      <c r="R422" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S422" s="13" t="s">
         <v>0</v>
@@ -52415,12 +54457,14 @@
       <c r="B423" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="C423" s="7"/>
+      <c r="C423" s="7" t="s">
+        <v>1948</v>
+      </c>
       <c r="D423" s="13" t="s">
         <v>1685</v>
       </c>
       <c r="E423" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F423" s="13" t="s">
         <v>30</v>
@@ -52432,34 +54476,40 @@
         <v>6</v>
       </c>
       <c r="I423" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J423" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K423" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L423" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M423" s="13"/>
-      <c r="N423" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J423" s="9">
+        <v>4</v>
+      </c>
+      <c r="K423" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L423" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M423" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N423" s="9">
         <v>1000</v>
       </c>
-      <c r="O423" s="14"/>
-      <c r="P423" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q423" s="14"/>
+      <c r="O423" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="P423" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q423" s="14" t="s">
+        <v>1945</v>
+      </c>
       <c r="R423" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S423" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T423" s="13" t="s">
-        <v>0</v>
+      <c r="T423" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="U423" s="13" t="s">
         <v>0</v>
@@ -52517,12 +54567,14 @@
       <c r="B424" s="7" t="s">
         <v>1553</v>
       </c>
-      <c r="C424" s="7"/>
+      <c r="C424" s="7" t="s">
+        <v>1950</v>
+      </c>
       <c r="D424" s="13" t="s">
         <v>1686</v>
       </c>
       <c r="E424" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F424" s="13" t="s">
         <v>30</v>
@@ -52536,17 +54588,19 @@
       <c r="I424" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J424" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K424" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L424" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M424" s="13"/>
-      <c r="N424" s="14">
+      <c r="J424" s="9">
+        <v>3</v>
+      </c>
+      <c r="K424" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L424" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M424" s="13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N424" s="9">
         <v>1000</v>
       </c>
       <c r="O424" s="14"/>
@@ -52619,12 +54673,14 @@
       <c r="B425" s="7" t="s">
         <v>1554</v>
       </c>
-      <c r="C425" s="7"/>
+      <c r="C425" s="7" t="s">
+        <v>1952</v>
+      </c>
       <c r="D425" s="13" t="s">
         <v>1687</v>
       </c>
       <c r="E425" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F425" s="13" t="s">
         <v>30</v>
@@ -52636,28 +54692,32 @@
         <v>6</v>
       </c>
       <c r="I425" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J425" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K425" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L425" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M425" s="13"/>
-      <c r="N425" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J425" s="9">
+        <v>1</v>
+      </c>
+      <c r="K425" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L425" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M425" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N425" s="9">
         <v>1000</v>
       </c>
-      <c r="O425" s="14"/>
+      <c r="O425" s="14" t="s">
+        <v>1953</v>
+      </c>
       <c r="P425" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q425" s="14"/>
-      <c r="R425" s="13" t="s">
-        <v>0</v>
+      <c r="R425" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S425" s="13" t="s">
         <v>0</v>
@@ -52721,12 +54781,14 @@
       <c r="B426" s="7" t="s">
         <v>1555</v>
       </c>
-      <c r="C426" s="7"/>
+      <c r="C426" s="7" t="s">
+        <v>1954</v>
+      </c>
       <c r="D426" s="13" t="s">
         <v>1688</v>
       </c>
       <c r="E426" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F426" s="13" t="s">
         <v>30</v>
@@ -52738,26 +54800,32 @@
         <v>6</v>
       </c>
       <c r="I426" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J426" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K426" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L426" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M426" s="13"/>
-      <c r="N426" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O426" s="14"/>
-      <c r="P426" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q426" s="14"/>
+        <v>1757</v>
+      </c>
+      <c r="J426" s="9">
+        <v>3</v>
+      </c>
+      <c r="K426" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L426" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M426" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N426" s="9">
+        <v>0</v>
+      </c>
+      <c r="O426" s="14" t="s">
+        <v>1955</v>
+      </c>
+      <c r="P426" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q426" s="14" t="s">
+        <v>1945</v>
+      </c>
       <c r="R426" s="13" t="s">
         <v>0</v>
       </c>
@@ -52767,8 +54835,8 @@
       <c r="T426" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U426" s="13" t="s">
-        <v>0</v>
+      <c r="U426" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="V426" s="13" t="s">
         <v>0</v>
@@ -52823,12 +54891,14 @@
       <c r="B427" s="7" t="s">
         <v>1556</v>
       </c>
-      <c r="C427" s="7"/>
+      <c r="C427" s="7" t="s">
+        <v>1878</v>
+      </c>
       <c r="D427" s="13" t="s">
         <v>1689</v>
       </c>
       <c r="E427" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F427" s="13" t="s">
         <v>30</v>
@@ -52840,28 +54910,32 @@
         <v>6</v>
       </c>
       <c r="I427" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J427" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K427" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L427" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M427" s="13"/>
-      <c r="N427" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O427" s="14"/>
+        <v>1757</v>
+      </c>
+      <c r="J427" s="9">
+        <v>10</v>
+      </c>
+      <c r="K427" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L427" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M427" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N427" s="9">
+        <v>0</v>
+      </c>
+      <c r="O427" s="14" t="s">
+        <v>1956</v>
+      </c>
       <c r="P427" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q427" s="14"/>
-      <c r="R427" s="13" t="s">
-        <v>0</v>
+      <c r="R427" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S427" s="13" t="s">
         <v>0</v>
@@ -52925,12 +54999,14 @@
       <c r="B428" s="7" t="s">
         <v>1557</v>
       </c>
-      <c r="C428" s="7"/>
+      <c r="C428" s="7" t="s">
+        <v>1957</v>
+      </c>
       <c r="D428" s="13" t="s">
         <v>1690</v>
       </c>
       <c r="E428" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F428" s="13" t="s">
         <v>30</v>
@@ -52942,28 +55018,32 @@
         <v>6</v>
       </c>
       <c r="I428" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J428" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K428" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L428" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M428" s="13"/>
-      <c r="N428" s="14">
+        <v>1753</v>
+      </c>
+      <c r="J428" s="9">
+        <v>1</v>
+      </c>
+      <c r="K428" s="9">
         <v>1000</v>
       </c>
-      <c r="O428" s="14"/>
-      <c r="P428" s="13" t="s">
-        <v>0</v>
+      <c r="L428" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M428" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N428" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O428" s="14" t="s">
+        <v>1958</v>
+      </c>
+      <c r="P428" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Q428" s="14"/>
-      <c r="R428" s="13" t="s">
-        <v>0</v>
+      <c r="R428" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S428" s="13" t="s">
         <v>0</v>
@@ -53027,12 +55107,14 @@
       <c r="B429" s="7" t="s">
         <v>1558</v>
       </c>
-      <c r="C429" s="7"/>
+      <c r="C429" s="7" t="s">
+        <v>1959</v>
+      </c>
       <c r="D429" s="13" t="s">
         <v>1691</v>
       </c>
       <c r="E429" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F429" s="13" t="s">
         <v>30</v>
@@ -53044,28 +55126,34 @@
         <v>6</v>
       </c>
       <c r="I429" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J429" s="9">
         <v>5</v>
       </c>
-      <c r="J429" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K429" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L429" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M429" s="13"/>
-      <c r="N429" s="14">
+      <c r="K429" s="9">
+        <v>0</v>
+      </c>
+      <c r="L429" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M429" s="13" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N429" s="9">
         <v>1000</v>
       </c>
-      <c r="O429" s="14"/>
-      <c r="P429" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q429" s="14"/>
-      <c r="R429" s="13" t="s">
-        <v>0</v>
+      <c r="O429" s="14" t="s">
+        <v>1960</v>
+      </c>
+      <c r="P429" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q429" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="R429" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S429" s="13" t="s">
         <v>0</v>
@@ -53129,12 +55217,14 @@
       <c r="B430" s="7" t="s">
         <v>1559</v>
       </c>
-      <c r="C430" s="7"/>
+      <c r="C430" s="7" t="s">
+        <v>1961</v>
+      </c>
       <c r="D430" s="13" t="s">
         <v>1692</v>
       </c>
       <c r="E430" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F430" s="13" t="s">
         <v>30</v>
@@ -53146,31 +55236,37 @@
         <v>6</v>
       </c>
       <c r="I430" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J430" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K430" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L430" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M430" s="13"/>
-      <c r="N430" s="14">
+        <v>1761</v>
+      </c>
+      <c r="J430" s="9">
+        <v>3</v>
+      </c>
+      <c r="K430" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L430" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M430" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N430" s="9">
         <v>1000</v>
       </c>
-      <c r="O430" s="14"/>
-      <c r="P430" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q430" s="14"/>
+      <c r="O430" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="P430" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q430" s="14" t="s">
+        <v>1763</v>
+      </c>
       <c r="R430" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S430" s="13" t="s">
-        <v>0</v>
+      <c r="S430" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="T430" s="13" t="s">
         <v>0</v>
@@ -53231,15 +55327,17 @@
       <c r="B431" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="C431" s="7"/>
+      <c r="C431" s="7" t="s">
+        <v>1963</v>
+      </c>
       <c r="D431" s="13" t="s">
         <v>1693</v>
       </c>
       <c r="E431" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F431" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G431" s="13" t="s">
         <v>1575</v>
@@ -53248,26 +55346,32 @@
         <v>6</v>
       </c>
       <c r="I431" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J431" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K431" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L431" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M431" s="13"/>
-      <c r="N431" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O431" s="14"/>
-      <c r="P431" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q431" s="14"/>
+        <v>1761</v>
+      </c>
+      <c r="J431" s="9">
+        <v>2</v>
+      </c>
+      <c r="K431" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L431" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M431" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N431" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O431" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="P431" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q431" s="14" t="s">
+        <v>1965</v>
+      </c>
       <c r="R431" s="13" t="s">
         <v>0</v>
       </c>
@@ -53298,8 +55402,8 @@
       <c r="AA431" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB431" s="13" t="s">
-        <v>0</v>
+      <c r="AB431" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AC431" s="13" t="s">
         <v>0</v>
@@ -53333,15 +55437,17 @@
       <c r="B432" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="C432" s="7"/>
+      <c r="C432" s="7" t="s">
+        <v>1966</v>
+      </c>
       <c r="D432" s="13" t="s">
         <v>1694</v>
       </c>
       <c r="E432" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F432" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G432" s="13" t="s">
         <v>1575</v>
@@ -53350,26 +55456,32 @@
         <v>6</v>
       </c>
       <c r="I432" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J432" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K432" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L432" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M432" s="13"/>
-      <c r="N432" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O432" s="14"/>
-      <c r="P432" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q432" s="14"/>
+        <v>1753</v>
+      </c>
+      <c r="J432" s="9">
+        <v>2</v>
+      </c>
+      <c r="K432" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L432" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M432" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N432" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O432" s="14" t="s">
+        <v>1967</v>
+      </c>
+      <c r="P432" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q432" s="14" t="s">
+        <v>1789</v>
+      </c>
       <c r="R432" s="13" t="s">
         <v>0</v>
       </c>
@@ -53397,8 +55509,8 @@
       <c r="Z432" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA432" s="13" t="s">
-        <v>0</v>
+      <c r="AA432" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB432" s="13" t="s">
         <v>0</v>
@@ -53435,15 +55547,17 @@
       <c r="B433" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="C433" s="7"/>
+      <c r="C433" s="7" t="s">
+        <v>1968</v>
+      </c>
       <c r="D433" s="13" t="s">
         <v>1695</v>
       </c>
       <c r="E433" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F433" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G433" s="13" t="s">
         <v>1575</v>
@@ -53454,24 +55568,30 @@
       <c r="I433" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J433" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K433" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L433" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M433" s="13"/>
-      <c r="N433" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O433" s="14"/>
-      <c r="P433" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q433" s="14"/>
+      <c r="J433" s="9">
+        <v>3</v>
+      </c>
+      <c r="K433" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L433" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M433" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N433" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O433" s="14" t="s">
+        <v>1969</v>
+      </c>
+      <c r="P433" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q433" s="14" t="s">
+        <v>1833</v>
+      </c>
       <c r="R433" s="13" t="s">
         <v>0</v>
       </c>
@@ -53499,8 +55619,8 @@
       <c r="Z433" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA433" s="13" t="s">
-        <v>0</v>
+      <c r="AA433" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB433" s="13" t="s">
         <v>0</v>
@@ -53537,15 +55657,17 @@
       <c r="B434" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="C434" s="7"/>
+      <c r="C434" s="7" t="s">
+        <v>1970</v>
+      </c>
       <c r="D434" s="13" t="s">
         <v>1696</v>
       </c>
       <c r="E434" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F434" s="13" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="G434" s="13" t="s">
         <v>1575</v>
@@ -53556,24 +55678,30 @@
       <c r="I434" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J434" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K434" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L434" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M434" s="13"/>
-      <c r="N434" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O434" s="14"/>
-      <c r="P434" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q434" s="14"/>
+      <c r="J434" s="9">
+        <v>2</v>
+      </c>
+      <c r="K434" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L434" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M434" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N434" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O434" s="14" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P434" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q434" s="14" t="s">
+        <v>1972</v>
+      </c>
       <c r="R434" s="13" t="s">
         <v>0</v>
       </c>
@@ -53601,8 +55729,8 @@
       <c r="Z434" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AA434" s="13" t="s">
-        <v>0</v>
+      <c r="AA434" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AB434" s="13" t="s">
         <v>0</v>
@@ -53639,12 +55767,14 @@
       <c r="B435" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="C435" s="7"/>
+      <c r="C435" s="7" t="s">
+        <v>1973</v>
+      </c>
       <c r="D435" s="13" t="s">
         <v>1697</v>
       </c>
       <c r="E435" s="13" t="s">
-        <v>292</v>
+        <v>800</v>
       </c>
       <c r="F435" s="13" t="s">
         <v>30</v>
@@ -53656,28 +55786,32 @@
         <v>6</v>
       </c>
       <c r="I435" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J435" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K435" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L435" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M435" s="13"/>
-      <c r="N435" s="14">
+        <v>1974</v>
+      </c>
+      <c r="J435" s="9">
+        <v>7</v>
+      </c>
+      <c r="K435" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L435" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M435" s="13" t="s">
+        <v>1975</v>
+      </c>
+      <c r="N435" s="9">
         <v>1000</v>
       </c>
-      <c r="O435" s="14"/>
+      <c r="O435" s="14" t="s">
+        <v>1976</v>
+      </c>
       <c r="P435" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q435" s="14"/>
-      <c r="R435" s="13" t="s">
-        <v>0</v>
+      <c r="R435" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S435" s="13" t="s">
         <v>0</v>
@@ -53741,12 +55875,14 @@
       <c r="B436" s="7" t="s">
         <v>1565</v>
       </c>
-      <c r="C436" s="7"/>
+      <c r="C436" s="7" t="s">
+        <v>1924</v>
+      </c>
       <c r="D436" s="13" t="s">
         <v>1698</v>
       </c>
       <c r="E436" s="13" t="s">
-        <v>292</v>
+        <v>1923</v>
       </c>
       <c r="F436" s="13" t="s">
         <v>30</v>
@@ -53758,28 +55894,32 @@
         <v>6</v>
       </c>
       <c r="I436" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J436" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K436" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L436" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M436" s="13"/>
-      <c r="N436" s="14">
-        <v>1000</v>
-      </c>
-      <c r="O436" s="14"/>
+        <v>1974</v>
+      </c>
+      <c r="J436" s="9">
+        <v>8</v>
+      </c>
+      <c r="K436" s="9">
+        <v>8000</v>
+      </c>
+      <c r="L436" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M436" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N436" s="9">
+        <v>0</v>
+      </c>
+      <c r="O436" s="14" t="s">
+        <v>1977</v>
+      </c>
       <c r="P436" s="13" t="s">
         <v>0</v>
       </c>
       <c r="Q436" s="14"/>
-      <c r="R436" s="13" t="s">
-        <v>0</v>
+      <c r="R436" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="S436" s="13" t="s">
         <v>0</v>

--- a/ワンピースカードリスト.xlsx
+++ b/ワンピースカードリスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\onepiececard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2DE6B-6860-44E2-ABD7-BB99ADDC6553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F225F-D5D3-44A7-A2A1-3A7325DB0524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AC039DD-FE59-4302-A031-1F03D9261B47}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15557" uniqueCount="2190">
   <si>
     <t>False</t>
   </si>
@@ -8342,6 +8342,833 @@
     <rPh sb="2" eb="3">
       <t>キ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST05-001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャンクス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-001.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST05-002</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-002.png</t>
+  </si>
+  <si>
+    <t>ST05-003</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-003.png</t>
+  </si>
+  <si>
+    <t>ST05-004</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-004.png</t>
+  </si>
+  <si>
+    <t>ST05-005</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-005.png</t>
+  </si>
+  <si>
+    <t>ST05-006</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-006.png</t>
+  </si>
+  <si>
+    <t>ST05-007</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-007.png</t>
+  </si>
+  <si>
+    <t>ST05-008</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-008.png</t>
+  </si>
+  <si>
+    <t>ST05-009</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-009.png</t>
+  </si>
+  <si>
+    <t>ST05-010</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-010.png</t>
+  </si>
+  <si>
+    <t>ST05-011</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-011.png</t>
+  </si>
+  <si>
+    <t>ST05-012</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-012.png</t>
+  </si>
+  <si>
+    <t>ST05-013</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-013.png</t>
+  </si>
+  <si>
+    <t>ST05-014</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-014.png</t>
+  </si>
+  <si>
+    <t>ST05-015</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-015.png</t>
+  </si>
+  <si>
+    <t>ST05-016</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-016.png</t>
+  </si>
+  <si>
+    <t>ST05-017</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST05-017.png</t>
+  </si>
+  <si>
+    <t>キャラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM,四皇,赤髪海賊団</t>
+    <rPh sb="5" eb="7">
+      <t>ヨンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アカガミ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】【ターン1回】ドン‼-3(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：自分の特徴《FILM》を持つキャラすべてを、このターン中、パワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】ドン‼デッキからドン‼1枚までをレストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ブロッカー】(相手のアタックの後、このカードをレストにし、アタックの対象をこのカードにできる)【ブロック時】ドン‼-1(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：相手のコスト5以下のキャラ1枚までを、レストにする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリーナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM,グラン・テゾーロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】【ターン1回】このキャラをレストにする，自分の手札の特徴《FILM》を持つカード1枚をトラッシュに置くことができる：相手の場のドン‼の枚数が自分の場のドン‼の枚数より多い場合、ドン‼デッキからドン‼2枚をレストで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギルド・テゾーロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】ドン‼-2(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：カード2枚を引く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴードン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分の場にドン‼が8枚以上ある場合、このキャラはバトルでKOされない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スカーレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM,動物,金獅子海賊団</t>
+    <rPh sb="5" eb="7">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キンジシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゼット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このキャラが属性(打)を持つキャラとバトルする時、このキャラは、このターン中、パワー+3000。【起動メイン】【ターン1回】ドン‼-1(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：このキャラは、このターン中、パワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダグラス・バレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】【ターン1回】ドン‼-4(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：相手のコスト6以下のキャラ2枚までを、レストにする。その後、このキャラは、このターン中、【ダブルアタック】を得る。(このカードが与えるダメージは2になる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バカラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビンズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブエナ・フェスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分のデッキの上から5枚を見て、「ブエナ・フェスタ」以外の特徴《FILM》を持つカード1枚までを公開し、手札に加える。その後、残りを好きな順番でデッキの下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dr.インディゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LILM,科学者,金獅子海賊団</t>
+    <rPh sb="5" eb="8">
+      <t>カガクシャ</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>キンジシカイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>獅子威御所地巻き:ししおどしごしょじまき</t>
+    <rPh sb="0" eb="2">
+      <t>シシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM,,金獅子海賊団</t>
+    <rPh sb="6" eb="12">
+      <t>キンジシカイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】ドン‼-2(自分の場のドン‼を指定の数ドン‼デッキに戻すことができる)：相手のコスト5以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】ドン‼デッキからドン‼1枚までをアクティブで追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鎧合体:ユニオン・アルマード</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガッタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FILM,海賊万博</t>
+    <rPh sb="5" eb="9">
+      <t>カイゾクバンパク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分の特徴《FILM》を持つ、リーダーかキャラ1枚までを、このバトル中、パワー+4000。そのカードがキャラの場合、そのキャラは、このターン中、KOされない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サカズキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST06-001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-001.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST06-002</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-002.png</t>
+  </si>
+  <si>
+    <t>ST06-003</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-003.png</t>
+  </si>
+  <si>
+    <t>ST06-004</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-004.png</t>
+  </si>
+  <si>
+    <t>ST06-005</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-005.png</t>
+  </si>
+  <si>
+    <t>ST06-006</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-006.png</t>
+  </si>
+  <si>
+    <t>ST06-007</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-007.png</t>
+  </si>
+  <si>
+    <t>ST06-008</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-008.png</t>
+  </si>
+  <si>
+    <t>ST06-009</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-009.png</t>
+  </si>
+  <si>
+    <t>ST06-010</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-010.png</t>
+  </si>
+  <si>
+    <t>ST06-011</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-011.png</t>
+  </si>
+  <si>
+    <t>ST06-012</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-012.png</t>
+  </si>
+  <si>
+    <t>ST06-013</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-013.png</t>
+  </si>
+  <si>
+    <t>ST06-014</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-014.png</t>
+  </si>
+  <si>
+    <t>ST06-015</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-015.png</t>
+  </si>
+  <si>
+    <t>ST06-016</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-016.png</t>
+  </si>
+  <si>
+    <t>ST06-017</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST06-017.png</t>
+  </si>
+  <si>
+    <t>海軍</t>
+    <rPh sb="0" eb="2">
+      <t>カイグン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】【ターン1回】③(コストエリアのドン‼を指定の数レストにできる)，自分の手札1枚を捨てることができる：相手のコスト0のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コビー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分の手札1枚を捨てることができる：相手のコスト0のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このキャラは効果でKOされない。【ドン!!×1】コスト0のキャラがいる場合、このキャラは【ダブルアタック】を得る。(このカードが与えるダメージは2になる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>センゴク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【アタック時】相手のキャラ1枚までを、このターン中、コスト-4。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たしぎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このキャラをレストにできる：相手のキャラ1枚までを、このターン中、コスト-2。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手のキャラ1枚までを、このターン中、コスト-4。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手のキャラ1枚までを、このターン中、コスト-3。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モモンガ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンキー・D・ガープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】自分の手札1枚を捨て、このキャラをレストにできる：相手のコスト4以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tボーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>衝撃波:しょうげきは</t>
+    <rPh sb="0" eb="3">
+      <t>ショウゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分のリーダーかキャラ1枚までを、このバトル中、パワー+4000。その後、相手のアクティブのコスト3以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手のコスト4以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大噴火:だいふんか</t>
+    <rPh sb="0" eb="3">
+      <t>ダイフンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】カード1枚を引く。その後、相手のキャラ1枚までを、このターン中、コスト-2。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】相手は自身の手札1枚を選び、捨てる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイト・アウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分のリーダーかキャラ1枚までを、このバトル中、パワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】カード1枚を引き、自分のキャラは、このターン中、KOされない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海軍本部:かいぐんほんぶ</t>
+    <rPh sb="0" eb="4">
+      <t>カイグンホンブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手のキャラ1枚までを、このターン中、コスト-1。【起動メイン】このステージをレストにできる：自分のリーダーが特徴《海軍》を持つ場合、相手のキャラ1枚までを、このターン中、コスト-1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST07-001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-001.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST07-002</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-002.png</t>
+  </si>
+  <si>
+    <t>ST07-003</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-003.png</t>
+  </si>
+  <si>
+    <t>ST07-004</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-004.png</t>
+  </si>
+  <si>
+    <t>ST07-005</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-005.png</t>
+  </si>
+  <si>
+    <t>ST07-006</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-006.png</t>
+  </si>
+  <si>
+    <t>ST07-007</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-007.png</t>
+  </si>
+  <si>
+    <t>ST07-008</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-008.png</t>
+  </si>
+  <si>
+    <t>ST07-009</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-009.png</t>
+  </si>
+  <si>
+    <t>ST07-010</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-010.png</t>
+  </si>
+  <si>
+    <t>ST07-011</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-011.png</t>
+  </si>
+  <si>
+    <t>ST07-012</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-012.png</t>
+  </si>
+  <si>
+    <t>ST07-013</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-013.png</t>
+  </si>
+  <si>
+    <t>ST07-014</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-014.png</t>
+  </si>
+  <si>
+    <t>ST07-015</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-015.png</t>
+  </si>
+  <si>
+    <t>ST07-016</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-016.png</t>
+  </si>
+  <si>
+    <t>ST07-017</t>
+  </si>
+  <si>
+    <t>C:\pleiades\2024-12\workspace\onepiece-card-viewer\src\main\resources\static\img\ST07-017.png</t>
+  </si>
+  <si>
+    <t>シャーロット・リンリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン‼×2】【アタック時】自分のライフの上か下から1枚を手札に加えることができる：自分のライフが2枚以下の場合、自分の手札1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・アナナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビッグ・マム海賊団</t>
+    <rPh sb="6" eb="9">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・カタクリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。その後、自分のライフの枚数が相手より少ない場合、このキャラは、このターン中、【速攻】を得る。(このカードは登場したターンにアタックできる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・スナック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【アタック時】自分のライフの上か下から1枚を手札に加えることができる：このキャラは、このバトル中、【バニッシュ】を得て、パワー+1000。(このカードがダメージを与えた場合、トリガーは発動せずそのカードはトラッシュに置かれる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・ダイフク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ドン!!×1】【アタック時】自分のライフの上か下から1枚を手札に加えることができる：自分のデッキの上から1枚までを、ライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・フランぺ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・ブリュレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・プリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャーロット・モンドール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このキャラをレストにし、自分のライフの上か下から1枚を手札に加えることができる：相手のコスト3以下のキャラ1枚までを、KOする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】自分の手札1枚を捨てることができる：このカードを登場させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登場時】相手は以下から1つを選ぶ。・相手のライフの上から1枚をトラッシュに置く。・自分のデッキの上から1枚をライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゼウス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このキャラをレストにできる：自分の「シャーロット・リンリン」1枚までは、このターン中、【バニッシュ】を得る。(このカードがダメージを与えた場合、トリガーは発動せずそのカードはトラッシュに置かれる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タマゴ男爵:タマゴだんしゃく</t>
+    <rPh sb="3" eb="5">
+      <t>ダンシャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロメテウス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このキャラをレストにできる：自分の「シャーロット・リンリン」1枚までは、このターン中、【ダブルアタック】を得る。(このカードが与えるダメージは2になる)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぺコムズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミンク族,ビッグ・マム海賊団</t>
+    <rPh sb="3" eb="4">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイゾクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魂への言葉:ソウル・ポーカス</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【メイン】相手は以下から1つを選ぶ。・相手のライフの上から1枚をトラッシュに置く。・自分のデッキの上から1枚をライフの上に加える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】このカードの【メイン】効果を発動する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>力餅:ちからもち</t>
+    <rPh sb="0" eb="2">
+      <t>チカラモチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【カウンター】自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。その後、自分のリーダーかキャラ1枚までを、このバトル中、パワー+2000。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【トリガー】カード1枚を引き、自分か相手のライフの上から1枚までを見て、ライフの上か下に置く。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クイーン・ママ・シャンテ号</t>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【起動メイン】このステージをレストにし、自分のライフの上か下から1枚を手札に加えることができる：自分のコスト3のキャラ1枚までを、持ち主のライフの上に表向きで加える。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8820,13 +9647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D67BDE5-50E5-4826-8D43-410A6F7BBB2A}">
-  <dimension ref="A1:AJ436"/>
+  <dimension ref="A1:AJ487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AB420" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AB483" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A437" sqref="A437"/>
+      <selection pane="bottomRight" activeCell="A488" sqref="A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -55976,6 +56803,5514 @@
         <v>0</v>
       </c>
     </row>
+    <row r="437" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="6">
+        <v>434</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E437" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F437" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G437" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H437" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I437" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J437" s="9">
+        <v>5</v>
+      </c>
+      <c r="K437" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L437" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M437" s="13" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N437" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O437" s="14" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="14"/>
+      <c r="R437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S437" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC437" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF437" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI437" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ437" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="6">
+        <v>435</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D438" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E438" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F438" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G438" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H438" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I438" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J438" s="9">
+        <v>4</v>
+      </c>
+      <c r="K438" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L438" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M438" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N438" s="9">
+        <v>0</v>
+      </c>
+      <c r="O438" s="14" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q438" s="14"/>
+      <c r="R438" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI438" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ438" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="6">
+        <v>436</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E439" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F439" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G439" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H439" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I439" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J439" s="9">
+        <v>2</v>
+      </c>
+      <c r="K439" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L439" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M439" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N439" s="9">
+        <v>0</v>
+      </c>
+      <c r="O439" s="14" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q439" s="14"/>
+      <c r="R439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG439" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI439" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ439" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="6">
+        <v>437</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E440" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F440" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G440" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H440" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I440" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J440" s="9">
+        <v>4</v>
+      </c>
+      <c r="K440" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L440" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M440" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N440" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O440" s="14" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q440" s="14"/>
+      <c r="R440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V440" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF440" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG440" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI440" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ440" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A441" s="6">
+        <v>438</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D441" s="13" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E441" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F441" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G441" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H441" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I441" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J441" s="9">
+        <v>2</v>
+      </c>
+      <c r="K441" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L441" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M441" s="13" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N441" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O441" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="P441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q441" s="14"/>
+      <c r="R441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S441" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC441" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI441" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ441" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="6">
+        <v>439</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E442" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F442" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G442" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H442" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I442" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J442" s="9">
+        <v>5</v>
+      </c>
+      <c r="K442" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L442" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M442" s="13" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N442" s="9">
+        <v>0</v>
+      </c>
+      <c r="O442" s="14" t="s">
+        <v>2034</v>
+      </c>
+      <c r="P442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q442" s="14"/>
+      <c r="R442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T442" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF442" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI442" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ442" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="6">
+        <v>440</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D443" s="13" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E443" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F443" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G443" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H443" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I443" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J443" s="9">
+        <v>1</v>
+      </c>
+      <c r="K443" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L443" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M443" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N443" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O443" s="14"/>
+      <c r="P443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q443" s="14"/>
+      <c r="R443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI443" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ443" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A444" s="6">
+        <v>441</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D444" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E444" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F444" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G444" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H444" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I444" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J444" s="9">
+        <v>6</v>
+      </c>
+      <c r="K444" s="9">
+        <v>7000</v>
+      </c>
+      <c r="L444" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M444" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N444" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O444" s="14" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q444" s="14"/>
+      <c r="R444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI444" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ444" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A445" s="6">
+        <v>442</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D445" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E445" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F445" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H445" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I445" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J445" s="9">
+        <v>2</v>
+      </c>
+      <c r="K445" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L445" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M445" s="13" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N445" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O445" s="14"/>
+      <c r="P445" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q445" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI445" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ445" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="6">
+        <v>443</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D446" s="13" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E446" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F446" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H446" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I446" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J446" s="9">
+        <v>7</v>
+      </c>
+      <c r="K446" s="9">
+        <v>8000</v>
+      </c>
+      <c r="L446" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M446" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N446" s="9">
+        <v>0</v>
+      </c>
+      <c r="O446" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="P446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q446" s="14"/>
+      <c r="R446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S446" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC446" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF446" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI446" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ446" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A447" s="6">
+        <v>444</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D447" s="13" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E447" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F447" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H447" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I447" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J447" s="9">
+        <v>8</v>
+      </c>
+      <c r="K447" s="9">
+        <v>10000</v>
+      </c>
+      <c r="L447" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M447" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N447" s="9">
+        <v>0</v>
+      </c>
+      <c r="O447" s="14" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q447" s="14"/>
+      <c r="R447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S447" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC447" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF447" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH447" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI447" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ447" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A448" s="6">
+        <v>445</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D448" s="13" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E448" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F448" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G448" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H448" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I448" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J448" s="9">
+        <v>3</v>
+      </c>
+      <c r="K448" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L448" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M448" s="13" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N448" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O448" s="14"/>
+      <c r="P448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q448" s="14"/>
+      <c r="R448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI448" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ448" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A449" s="6">
+        <v>446</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E449" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F449" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G449" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H449" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I449" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J449" s="9">
+        <v>4</v>
+      </c>
+      <c r="K449" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L449" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M449" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N449" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O449" s="14"/>
+      <c r="P449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q449" s="14"/>
+      <c r="R449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI449" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ449" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="6">
+        <v>447</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D450" s="13" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E450" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F450" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H450" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I450" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J450" s="9">
+        <v>1</v>
+      </c>
+      <c r="K450" s="9">
+        <v>0</v>
+      </c>
+      <c r="L450" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M450" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N450" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O450" s="14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="P450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="14"/>
+      <c r="R450" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI450" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ450" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A451" s="6">
+        <v>448</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D451" s="13" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E451" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F451" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G451" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H451" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I451" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J451" s="9">
+        <v>2</v>
+      </c>
+      <c r="K451" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L451" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M451" s="13" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N451" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O451" s="14"/>
+      <c r="P451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q451" s="14"/>
+      <c r="R451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI451" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ451" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A452" s="6">
+        <v>449</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E452" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F452" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G452" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H452" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I452" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J452" s="9">
+        <v>3</v>
+      </c>
+      <c r="K452" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L452" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M452" s="13" t="s">
+        <v>2052</v>
+      </c>
+      <c r="N452" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O452" s="14" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P452" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q452" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA452" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI452" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ452" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A453" s="6">
+        <v>450</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E453" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F453" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G453" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H453" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I453" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J453" s="9">
+        <v>2</v>
+      </c>
+      <c r="K453" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L453" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M453" s="13" t="s">
+        <v>2056</v>
+      </c>
+      <c r="N453" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O453" s="14" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P453" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q453" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB453" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI453" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ453" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A454" s="6">
+        <v>451</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E454" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F454" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G454" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H454" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I454" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J454" s="9">
+        <v>5</v>
+      </c>
+      <c r="K454" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L454" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M454" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N454" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O454" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="P454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q454" s="14"/>
+      <c r="R454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S454" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC454" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI454" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ454" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A455" s="6">
+        <v>452</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D455" s="13" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E455" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F455" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G455" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H455" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I455" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J455" s="9">
+        <v>1</v>
+      </c>
+      <c r="K455" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L455" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M455" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N455" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O455" s="14" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q455" s="14"/>
+      <c r="R455" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI455" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ455" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="6">
+        <v>453</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D456" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E456" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F456" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H456" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I456" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J456" s="9">
+        <v>1</v>
+      </c>
+      <c r="K456" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L456" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M456" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N456" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O456" s="14"/>
+      <c r="P456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q456" s="14"/>
+      <c r="R456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI456" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ456" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="6">
+        <v>454</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D457" s="13" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E457" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F457" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G457" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H457" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I457" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J457" s="9">
+        <v>5</v>
+      </c>
+      <c r="K457" s="9">
+        <v>7000</v>
+      </c>
+      <c r="L457" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M457" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N457" s="9">
+        <v>0</v>
+      </c>
+      <c r="O457" s="14" t="s">
+        <v>2099</v>
+      </c>
+      <c r="P457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q457" s="14"/>
+      <c r="R457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD457" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH457" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI457" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ457" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="6">
+        <v>455</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D458" s="13" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E458" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F458" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H458" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I458" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J458" s="9">
+        <v>5</v>
+      </c>
+      <c r="K458" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L458" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M458" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N458" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O458" s="14" t="s">
+        <v>2101</v>
+      </c>
+      <c r="P458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q458" s="14"/>
+      <c r="R458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T458" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI458" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ458" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="6">
+        <v>456</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D459" s="13" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E459" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F459" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G459" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H459" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I459" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J459" s="9">
+        <v>3</v>
+      </c>
+      <c r="K459" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L459" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M459" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N459" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O459" s="14" t="s">
+        <v>2103</v>
+      </c>
+      <c r="P459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q459" s="14"/>
+      <c r="R459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S459" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI459" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ459" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="6">
+        <v>457</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D460" s="13" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E460" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F460" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G460" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H460" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I460" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J460" s="9">
+        <v>2</v>
+      </c>
+      <c r="K460" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L460" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M460" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N460" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O460" s="14" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q460" s="14"/>
+      <c r="R460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG460" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI460" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ460" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="6">
+        <v>458</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D461" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E461" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F461" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G461" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H461" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I461" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J461" s="9">
+        <v>3</v>
+      </c>
+      <c r="K461" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L461" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M461" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N461" s="9">
+        <v>0</v>
+      </c>
+      <c r="O461" s="14" t="s">
+        <v>2105</v>
+      </c>
+      <c r="P461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q461" s="14"/>
+      <c r="R461" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI461" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ461" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="6">
+        <v>459</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D462" s="13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E462" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F462" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G462" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H462" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I462" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J462" s="9">
+        <v>2</v>
+      </c>
+      <c r="K462" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L462" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M462" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N462" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O462" s="14"/>
+      <c r="P462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q462" s="14"/>
+      <c r="R462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI462" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ462" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="6">
+        <v>460</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D463" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E463" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F463" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G463" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H463" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I463" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J463" s="9">
+        <v>2</v>
+      </c>
+      <c r="K463" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L463" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M463" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N463" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O463" s="14" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q463" s="14"/>
+      <c r="R463" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI463" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ463" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="6">
+        <v>461</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D464" s="13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E464" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F464" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G464" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H464" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I464" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J464" s="9">
+        <v>4</v>
+      </c>
+      <c r="K464" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L464" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M464" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N464" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O464" s="14"/>
+      <c r="P464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q464" s="14"/>
+      <c r="R464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI464" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ464" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A465" s="6">
+        <v>462</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D465" s="13" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E465" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F465" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G465" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H465" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I465" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J465" s="9">
+        <v>5</v>
+      </c>
+      <c r="K465" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L465" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M465" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N465" s="9">
+        <v>0</v>
+      </c>
+      <c r="O465" s="14" t="s">
+        <v>2109</v>
+      </c>
+      <c r="P465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q465" s="14"/>
+      <c r="R465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S465" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI465" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ465" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A466" s="6">
+        <v>463</v>
+      </c>
+      <c r="B466" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D466" s="13" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E466" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F466" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G466" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H466" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I466" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J466" s="9">
+        <v>3</v>
+      </c>
+      <c r="K466" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L466" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M466" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N466" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O466" s="14"/>
+      <c r="P466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q466" s="14"/>
+      <c r="R466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI466" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ466" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A467" s="6">
+        <v>464</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D467" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E467" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F467" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G467" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H467" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I467" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J467" s="9">
+        <v>2</v>
+      </c>
+      <c r="K467" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L467" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M467" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N467" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O467" s="14" t="s">
+        <v>2112</v>
+      </c>
+      <c r="P467" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q467" s="14" t="s">
+        <v>2113</v>
+      </c>
+      <c r="R467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB467" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI467" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ467" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A468" s="6">
+        <v>465</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D468" s="13" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E468" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F468" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H468" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I468" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J468" s="9">
+        <v>1</v>
+      </c>
+      <c r="K468" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L468" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M468" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N468" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O468" s="14" t="s">
+        <v>2115</v>
+      </c>
+      <c r="P468" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q468" s="14" t="s">
+        <v>2116</v>
+      </c>
+      <c r="R468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA468" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI468" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ468" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="6">
+        <v>466</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D469" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E469" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F469" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G469" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H469" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I469" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J469" s="9">
+        <v>1</v>
+      </c>
+      <c r="K469" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L469" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M469" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N469" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O469" s="14" t="s">
+        <v>2118</v>
+      </c>
+      <c r="P469" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q469" s="14" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB469" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI469" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ469" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="6">
+        <v>467</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D470" s="13" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E470" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F470" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H470" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I470" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J470" s="9">
+        <v>1</v>
+      </c>
+      <c r="K470" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L470" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M470" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N470" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O470" s="14" t="s">
+        <v>2121</v>
+      </c>
+      <c r="P470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q470" s="14"/>
+      <c r="R470" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S470" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI470" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ470" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="6">
+        <v>468</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D471" s="13" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E471" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F471" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G471" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H471" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I471" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J471" s="9">
+        <v>5</v>
+      </c>
+      <c r="K471" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L471" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M471" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N471" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O471" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="P471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q471" s="14"/>
+      <c r="R471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T471" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD471" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI471" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ471" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A472" s="6">
+        <v>469</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D472" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E472" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F472" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G472" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H472" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I472" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J472" s="9">
+        <v>1</v>
+      </c>
+      <c r="K472" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L472" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M472" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N472" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O472" s="14"/>
+      <c r="P472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q472" s="14"/>
+      <c r="R472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI472" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ472" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A473" s="6">
+        <v>470</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D473" s="13" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E473" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F473" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G473" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H473" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I473" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J473" s="9">
+        <v>4</v>
+      </c>
+      <c r="K473" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L473" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M473" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N473" s="9">
+        <v>0</v>
+      </c>
+      <c r="O473" s="14" t="s">
+        <v>2162</v>
+      </c>
+      <c r="P473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q473" s="14"/>
+      <c r="R473" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH473" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ473" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A474" s="6">
+        <v>471</v>
+      </c>
+      <c r="B474" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D474" s="13" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E474" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F474" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G474" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H474" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I474" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J474" s="9">
+        <v>5</v>
+      </c>
+      <c r="K474" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L474" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M474" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N474" s="9">
+        <v>0</v>
+      </c>
+      <c r="O474" s="14" t="s">
+        <v>2164</v>
+      </c>
+      <c r="P474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q474" s="14"/>
+      <c r="R474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T474" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD474" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI474" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ474" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A475" s="6">
+        <v>472</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D475" s="13" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E475" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F475" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G475" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H475" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I475" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J475" s="9">
+        <v>4</v>
+      </c>
+      <c r="K475" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L475" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M475" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N475" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O475" s="14" t="s">
+        <v>2166</v>
+      </c>
+      <c r="P475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q475" s="14"/>
+      <c r="R475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T475" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD475" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI475" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ475" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A476" s="6">
+        <v>473</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D476" s="13" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E476" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F476" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G476" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H476" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I476" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J476" s="9">
+        <v>2</v>
+      </c>
+      <c r="K476" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L476" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M476" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N476" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O476" s="14"/>
+      <c r="P476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q476" s="14"/>
+      <c r="R476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI476" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ476" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A477" s="6">
+        <v>474</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D477" s="13" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E477" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F477" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G477" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H477" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I477" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J477" s="9">
+        <v>3</v>
+      </c>
+      <c r="K477" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L477" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M477" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N477" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O477" s="14" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P477" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q477" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG477" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI477" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ477" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A478" s="6">
+        <v>475</v>
+      </c>
+      <c r="B478" s="7" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D478" s="13" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E478" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F478" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G478" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H478" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I478" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J478" s="9">
+        <v>2</v>
+      </c>
+      <c r="K478" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L478" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="M478" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N478" s="9">
+        <v>2000</v>
+      </c>
+      <c r="O478" s="14" t="s">
+        <v>2170</v>
+      </c>
+      <c r="P478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q478" s="14"/>
+      <c r="R478" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI478" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ478" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="6">
+        <v>476</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D479" s="13" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E479" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F479" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G479" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H479" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I479" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J479" s="9">
+        <v>3</v>
+      </c>
+      <c r="K479" s="9">
+        <v>4000</v>
+      </c>
+      <c r="L479" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M479" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N479" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O479" s="14" t="s">
+        <v>2172</v>
+      </c>
+      <c r="P479" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q479" s="14" t="s">
+        <v>2173</v>
+      </c>
+      <c r="R479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S479" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI479" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ479" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="6">
+        <v>477</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D480" s="13" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E480" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F480" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H480" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I480" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J480" s="9">
+        <v>7</v>
+      </c>
+      <c r="K480" s="9">
+        <v>8000</v>
+      </c>
+      <c r="L480" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M480" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N480" s="9">
+        <v>0</v>
+      </c>
+      <c r="O480" s="14" t="s">
+        <v>2174</v>
+      </c>
+      <c r="P480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q480" s="14"/>
+      <c r="R480" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI480" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ480" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A481" s="6">
+        <v>478</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D481" s="13" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E481" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F481" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G481" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H481" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I481" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J481" s="9">
+        <v>3</v>
+      </c>
+      <c r="K481" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L481" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M481" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N481" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O481" s="14" t="s">
+        <v>2176</v>
+      </c>
+      <c r="P481" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q481" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S481" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI481" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ481" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="6">
+        <v>479</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D482" s="13" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E482" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F482" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H482" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I482" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J482" s="9">
+        <v>4</v>
+      </c>
+      <c r="K482" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L482" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M482" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N482" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O482" s="14"/>
+      <c r="P482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q482" s="14"/>
+      <c r="R482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI482" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ482" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="6">
+        <v>480</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D483" s="13" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E483" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F483" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G483" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H483" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I483" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J483" s="9">
+        <v>3</v>
+      </c>
+      <c r="K483" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L483" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M483" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N483" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O483" s="14" t="s">
+        <v>2179</v>
+      </c>
+      <c r="P483" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q483" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S483" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH483" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI483" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ483" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A484" s="6">
+        <v>481</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D484" s="13" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E484" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F484" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G484" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H484" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I484" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J484" s="9">
+        <v>3</v>
+      </c>
+      <c r="K484" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L484" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M484" s="13" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N484" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O484" s="14"/>
+      <c r="P484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q484" s="14"/>
+      <c r="R484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI484" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ484" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="6">
+        <v>482</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D485" s="13" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E485" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F485" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G485" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H485" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I485" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J485" s="9">
+        <v>5</v>
+      </c>
+      <c r="K485" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L485" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M485" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N485" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O485" s="14" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P485" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q485" s="14" t="s">
+        <v>2184</v>
+      </c>
+      <c r="R485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA485" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI485" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ485" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A486" s="6">
+        <v>483</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D486" s="13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E486" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F486" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H486" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I486" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J486" s="9">
+        <v>1</v>
+      </c>
+      <c r="K486" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L486" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M486" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N486" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O486" s="14" t="s">
+        <v>2186</v>
+      </c>
+      <c r="P486" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q486" s="14" t="s">
+        <v>2187</v>
+      </c>
+      <c r="R486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB486" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI486" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ486" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="6">
+        <v>484</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D487" s="13" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E487" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F487" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="G487" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H487" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I487" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J487" s="9">
+        <v>2</v>
+      </c>
+      <c r="K487" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L487" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M487" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N487" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O487" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="P487" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q487" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S487" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI487" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ487" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AJ54" xr:uid="{8B0AA6EC-D7D1-468E-9274-054ABEDB77C8}"/>
   <phoneticPr fontId="2"/>
